--- a/outputs-HGR-r202-archive/g__CAG-145_train.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-145_train.xlsx
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,26 +648,26 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_1.fasta</t>
+          <t>label_UMGS95_0.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.740987823350606</v>
+        <v>0.7626145965082027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03508079791104905</v>
+        <v>0.007453939693234331</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02201600380685486</v>
+        <v>0.04708631898224776</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07525458762378703</v>
+        <v>0.07241011087237448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1266607873077031</v>
+        <v>0.1104350339439407</v>
       </c>
       <c r="G5" t="n">
-        <v>0.740987823350606</v>
+        <v>0.7626145965082027</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -678,26 +678,26 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_10.fasta</t>
+          <t>label_UMGS95_12.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5390077961172614</v>
+        <v>0.5934003305186802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3840001989707444</v>
+        <v>0.1666928908387743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008589697281855393</v>
+        <v>0.0776091350291717</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01322314474763375</v>
+        <v>0.05420173896271236</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0551791628825052</v>
+        <v>0.1080959046506615</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5390077961172614</v>
+        <v>0.5934003305186802</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -708,26 +708,26 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_11.fasta</t>
+          <t>label_UMGS95_14.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5763016325838521</v>
+        <v>0.5194563541231163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1313154319514601</v>
+        <v>0.1827196170129052</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0402370300013886</v>
+        <v>0.06486286133340369</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05479054968544664</v>
+        <v>0.1406680369218705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1973553557778526</v>
+        <v>0.09229313060870432</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5763016325838521</v>
+        <v>0.5194563541231163</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -738,26 +738,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_3.fasta</t>
+          <t>label_UMGS95_4.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7170777708214433</v>
+        <v>0.9134748127316865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008560416174529836</v>
+        <v>0.01939535840404999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05858288382583215</v>
+        <v>0.03514349861720522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04362310396460767</v>
+        <v>0.01407107083065854</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1721558252135869</v>
+        <v>0.01791525941639973</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7170777708214433</v>
+        <v>0.9134748127316865</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -768,26 +768,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_9.fasta</t>
+          <t>label_UMGS95_5.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6246436502309576</v>
+        <v>0.8365127680879457</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02405609175736904</v>
+        <v>0.02000943021360829</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0559289019493318</v>
+        <v>0.04569342042897174</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0752016958974932</v>
+        <v>0.04115354805749673</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2201696601648483</v>
+        <v>0.05663083321197748</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6246436502309576</v>
+        <v>0.8365127680879457</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -798,56 +798,56 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_0.fasta</t>
+          <t>label_UMGS95_15.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7626145965082027</v>
+        <v>2.589255586968913e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007453939693234331</v>
+        <v>0.2279370286252714</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04708631898224776</v>
+        <v>0.0009077822913148291</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07241011087237448</v>
+        <v>0.3662991357519705</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1104350339439407</v>
+        <v>0.4048560533314174</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7626145965082027</v>
+        <v>0.4048560533314174</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp000435715</t>
+          <t>s__CAG-145 sp900545135</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_12.fasta</t>
+          <t>label_UMGS95_7.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5934003305186802</v>
+        <v>0.9492018896121704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1666928908387743</v>
+        <v>0.03928315711187128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0776091350291717</v>
+        <v>0.0112846367718197</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05420173896271236</v>
+        <v>0.0001583324584247219</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1080959046506615</v>
+        <v>7.198404571385694e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5934003305186802</v>
+        <v>0.9492018896121704</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -858,26 +858,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_14.fasta</t>
+          <t>label_UMGS95_8.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5194563541231163</v>
+        <v>0.978809843364853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1827196170129052</v>
+        <v>0.0001621834357786974</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06486286133340369</v>
+        <v>0.01572784427366346</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1406680369218705</v>
+        <v>0.0004038183746378541</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09229313060870432</v>
+        <v>0.004896310551066894</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5194563541231163</v>
+        <v>0.978809843364853</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -888,56 +888,56 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_4.fasta</t>
+          <t>label_UMGS95_13.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9134748127316865</v>
+        <v>0.3867532539642718</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01939535840404999</v>
+        <v>0.02739650692625999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03514349861720522</v>
+        <v>0.03246806181206058</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01407107083065854</v>
+        <v>0.1380438224752175</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01791525941639973</v>
+        <v>0.4153383548221901</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9134748127316865</v>
+        <v>0.4153383548221901</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp000435715</t>
+          <t>s__CAG-145 sp900545135</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_5.fasta</t>
+          <t>label_UMGS95_2.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8365127680879457</v>
+        <v>0.7169991287819136</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02000943021360829</v>
+        <v>0.004316626013402985</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04569342042897174</v>
+        <v>0.02867423062521791</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04115354805749673</v>
+        <v>0.06288266121725343</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05663083321197748</v>
+        <v>0.187127353362212</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8365127680879457</v>
+        <v>0.7169991287819136</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -948,178 +948,28 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS95_15.fasta</t>
+          <t>label_UMGS95_6.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.589255586968913e-14</v>
+        <v>0.811543905106582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2279370286252714</v>
+        <v>0.001786796885039937</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0009077822913148291</v>
+        <v>0.01922316241353713</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3662991357519705</v>
+        <v>0.08369973411206855</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4048560533314174</v>
+        <v>0.08374640148277246</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4048560533314174</v>
+        <v>0.811543905106582</v>
       </c>
       <c r="H15" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS95_7.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9492018896121704</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.03928315711187128</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0112846367718197</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0001583324584247219</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7.198404571385694e-05</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9492018896121704</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp000435715</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS95_8.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.978809843364853</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0001621834357786974</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.01572784427366346</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0004038183746378541</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.004896310551066894</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.978809843364853</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp000435715</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS95_13.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.3867532539642718</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.02739650692625999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.03246806181206058</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.1380438224752175</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.4153383548221901</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.4153383548221901</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS95_2.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.7169991287819136</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.004316626013402985</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.02867423062521791</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.06288266121725343</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.187127353362212</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.7169991287819136</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp000435715</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS95_6.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.811543905106582</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.001786796885039937</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.01922316241353713</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.08369973411206855</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.08374640148277246</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.811543905106582</v>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>s__CAG-145 sp000435715</t>
         </is>
@@ -1136,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1759,26 +1609,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_25.fasta</t>
+          <t>label_UMGS207_17.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03323985058126589</v>
+        <v>0.005986025211600292</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9074660826757136</v>
+        <v>0.9410891154915594</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005105743331001175</v>
+        <v>0.04773523531084349</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01662530952744203</v>
+        <v>0.00120863390853898</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03756301388457736</v>
+        <v>0.003980990077457973</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9074660826757136</v>
+        <v>0.9410891154915594</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1789,26 +1639,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_3.fasta</t>
+          <t>label_UMGS207_20.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0234096987474706</v>
+        <v>0.02574581895787246</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9451894910824666</v>
+        <v>0.9561236092804956</v>
       </c>
       <c r="D22" t="n">
-        <v>0.007630863925047116</v>
+        <v>0.007778373200829303</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01443265218751518</v>
+        <v>0.003904596693168742</v>
       </c>
       <c r="F22" t="n">
-        <v>0.009337294057500516</v>
+        <v>0.006447601867633857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9451894910824666</v>
+        <v>0.9561236092804956</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1819,26 +1669,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_33.fasta</t>
+          <t>label_UMGS207_21.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03765496061523001</v>
+        <v>0.01117952020110642</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8484806247389036</v>
+        <v>0.9322872340691014</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02821591343570813</v>
+        <v>0.001659822214689836</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01284153485824369</v>
+        <v>0.005367466705493536</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07280696635191458</v>
+        <v>0.04950595680960875</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8484806247389036</v>
+        <v>0.9322872340691014</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1849,26 +1699,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_4.fasta</t>
+          <t>label_UMGS207_26.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01130866342615867</v>
+        <v>0.01215640030186347</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9598172693144899</v>
+        <v>0.8426437797160492</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004982147493275683</v>
+        <v>0.003606934932079505</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00329979363626676</v>
+        <v>0.002401642455630572</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0205921261298091</v>
+        <v>0.1391912425943773</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9598172693144899</v>
+        <v>0.8426437797160492</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1879,26 +1729,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_40.fasta</t>
+          <t>label_UMGS207_36.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03279860515998802</v>
+        <v>0.01206698285981615</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9057373952876148</v>
+        <v>0.9804444328557348</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01585089850264755</v>
+        <v>0.001487578150309819</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01157131521590567</v>
+        <v>0.001760002439963425</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03404178583384405</v>
+        <v>0.004241003694176032</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9057373952876148</v>
+        <v>0.9804444328557348</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1909,26 +1759,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_42.fasta</t>
+          <t>label_UMGS207_38.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0312354713738184</v>
+        <v>0.02338000799799934</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9241745159479622</v>
+        <v>0.9599235694156603</v>
       </c>
       <c r="D26" t="n">
-        <v>0.007622810518437503</v>
+        <v>0.001171876597677758</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01679053573781165</v>
+        <v>0.003279202349293451</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02017666642197032</v>
+        <v>0.01224534363936915</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9241745159479622</v>
+        <v>0.9599235694156603</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1939,26 +1789,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_49.fasta</t>
+          <t>label_UMGS207_5.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03296239996445289</v>
+        <v>0.04006519010250487</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9215694232482713</v>
+        <v>0.9198887416055488</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009728007031327259</v>
+        <v>0.0006220591120801433</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004563814309974185</v>
+        <v>0.01106360922585964</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03117635544597434</v>
+        <v>0.0283603999540066</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9215694232482713</v>
+        <v>0.9198887416055488</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1969,26 +1819,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_50.fasta</t>
+          <t>label_UMGS207_56.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03386859515788198</v>
+        <v>0.0112897239700816</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8739117117978864</v>
+        <v>0.9310639245851046</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01117199774047967</v>
+        <v>0.0400365339593687</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02179105584712785</v>
+        <v>0.002557997876273174</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05925663945662428</v>
+        <v>0.01505181960917196</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8739117117978864</v>
+        <v>0.9310639245851046</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1999,26 +1849,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_51.fasta</t>
+          <t>label_UMGS207_58.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01261289102688268</v>
+        <v>0.01655386172338466</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9087279676311564</v>
+        <v>0.9599982046876838</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05462412417616725</v>
+        <v>0.006645573600320013</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001658001881547375</v>
+        <v>0.004901045818185769</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02237701528424637</v>
+        <v>0.01190131417042582</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9087279676311564</v>
+        <v>0.9599982046876838</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2029,26 +1879,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_53.fasta</t>
+          <t>label_UMGS207_69.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02941088407488759</v>
+        <v>0.01953136259946685</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8540363099950413</v>
+        <v>0.9015941364325897</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008020450675542037</v>
+        <v>0.008986579586818758</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008262662381318769</v>
+        <v>0.006531323758389589</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1002696928732103</v>
+        <v>0.06335659762273523</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8540363099950413</v>
+        <v>0.9015941364325897</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2059,26 +1909,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_57.fasta</t>
+          <t>label_UMGS207_76.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008628135697027903</v>
+        <v>0.0002693120207738839</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9423479899166859</v>
+        <v>0.9745397142558166</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02461185678997219</v>
+        <v>0.01259146590264843</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004507205328702119</v>
+        <v>0.0001325116624104389</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01990481226761186</v>
+        <v>0.01246699615835064</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9423479899166859</v>
+        <v>0.9745397142558166</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2089,26 +1939,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_61.fasta</t>
+          <t>label_UMGS207_77.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04240726809616912</v>
+        <v>0.06559586670848547</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7806973321884417</v>
+        <v>0.6596978254987755</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01423285211513376</v>
+        <v>0.01837503475892409</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01243931873962952</v>
+        <v>0.08121040232913405</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1502232288606261</v>
+        <v>0.1751208707046809</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7806973321884417</v>
+        <v>0.6596978254987755</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2119,26 +1969,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_62.fasta</t>
+          <t>label_UMGS207_78.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02030287705504672</v>
+        <v>0.002400158081502143</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9024083512023376</v>
+        <v>0.9485902241769596</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03832318775628932</v>
+        <v>0.01811077823014399</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004371622633502342</v>
+        <v>0.0009466026167348127</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03459396135282396</v>
+        <v>0.02995223689465932</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9024083512023376</v>
+        <v>0.9485902241769596</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2149,26 +1999,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_67.fasta</t>
+          <t>label_UMGS207_81.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04314006514939837</v>
+        <v>0.008466675465720601</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7565557613519605</v>
+        <v>0.9004593066776119</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02351061986518154</v>
+        <v>0.02086025082165012</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04118396363314453</v>
+        <v>0.007374734115398531</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1356095900003151</v>
+        <v>0.06283903291961894</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7565557613519605</v>
+        <v>0.9004593066776119</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2179,26 +2029,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_87.fasta</t>
+          <t>label_UMGS207_84.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02045564551585178</v>
+        <v>0.0006553005533055707</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7997334714503103</v>
+        <v>0.9196558097811633</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1028811234069017</v>
+        <v>0.06467581086223566</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02013527648141616</v>
+        <v>0.001137016400736887</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05679448314552005</v>
+        <v>0.01387606240255834</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7997334714503103</v>
+        <v>0.9196558097811633</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2209,56 +2059,56 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_89.fasta</t>
+          <t>label_UMGS207_93.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008358372603870021</v>
+        <v>0.002711818722474787</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5421614566488242</v>
+        <v>0.4439584782054239</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3286151138802841</v>
+        <v>0.4850927313194622</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01099094301044259</v>
+        <v>0.01703752881401062</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1098741138565789</v>
+        <v>0.0511994429386284</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5421614566488242</v>
+        <v>0.4850927313194622</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900540145</t>
+          <t>s__CAG-145 sp900542295</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_90.fasta</t>
+          <t>label_UMGS207_94.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.005961362415945868</v>
+        <v>0.2397197575971289</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7338639805180358</v>
+        <v>0.4017933041772639</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02248555734634975</v>
+        <v>0.1522259787732961</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07851471172820984</v>
+        <v>0.1983799954510553</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1591743879914589</v>
+        <v>0.007880964001255698</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7338639805180358</v>
+        <v>0.4017933041772639</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2269,26 +2119,26 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_97.fasta</t>
+          <t>label_UMGS207_95.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0003399652354644124</v>
+        <v>0.02609478448526263</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3951444734157193</v>
+        <v>0.752574903714704</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0007613741897243223</v>
+        <v>0.03321180341703169</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2563315015356451</v>
+        <v>0.07274307923306408</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3474226856234469</v>
+        <v>0.1153754291499377</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3951444734157193</v>
+        <v>0.752574903714704</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2299,26 +2149,26 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_17.fasta</t>
+          <t>label_UMGS207_1.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.005986025211600292</v>
+        <v>0.0257510959216669</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9410891154915594</v>
+        <v>0.8690056428870412</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04773523531084349</v>
+        <v>0.09204991205985455</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00120863390853898</v>
+        <v>0.002886248755154404</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003980990077457973</v>
+        <v>0.01030710037628299</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9410891154915594</v>
+        <v>0.8690056428870412</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2329,26 +2179,26 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_20.fasta</t>
+          <t>label_UMGS207_10.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02574581895787246</v>
+        <v>0.0110545635340831</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9561236092804956</v>
+        <v>0.9228549402872459</v>
       </c>
       <c r="D40" t="n">
-        <v>0.007778373200829303</v>
+        <v>0.03755468844339013</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003904596693168742</v>
+        <v>0.008131704442685172</v>
       </c>
       <c r="F40" t="n">
-        <v>0.006447601867633857</v>
+        <v>0.02040410329259567</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9561236092804956</v>
+        <v>0.9228549402872459</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2359,26 +2209,26 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_21.fasta</t>
+          <t>label_UMGS207_44.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01117952020110642</v>
+        <v>0.02261779455402876</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9322872340691014</v>
+        <v>0.8968384703560849</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001659822214689836</v>
+        <v>0.05666727735413201</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005367466705493536</v>
+        <v>0.003984524564171689</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04950595680960875</v>
+        <v>0.01989193317158265</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9322872340691014</v>
+        <v>0.8968384703560849</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2389,26 +2239,26 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_26.fasta</t>
+          <t>label_UMGS207_48.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01215640030186347</v>
+        <v>0.02218878845370063</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8426437797160492</v>
+        <v>0.9122707114669925</v>
       </c>
       <c r="D42" t="n">
-        <v>0.003606934932079505</v>
+        <v>0.02536317034787026</v>
       </c>
       <c r="E42" t="n">
-        <v>0.002401642455630572</v>
+        <v>0.01243379793236054</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1391912425943773</v>
+        <v>0.02774353179907608</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8426437797160492</v>
+        <v>0.9122707114669925</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2419,26 +2269,26 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_36.fasta</t>
+          <t>label_UMGS207_54.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01206698285981615</v>
+        <v>0.01648103078552534</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9804444328557348</v>
+        <v>0.9372411217451955</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001487578150309819</v>
+        <v>0.01993925029581433</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001760002439963425</v>
+        <v>0.004213789392611478</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004241003694176032</v>
+        <v>0.02212480778085331</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9804444328557348</v>
+        <v>0.9372411217451955</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2449,26 +2299,26 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_38.fasta</t>
+          <t>label_UMGS207_59.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02338000799799934</v>
+        <v>0.02729101714238712</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9599235694156603</v>
+        <v>0.832851336359974</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001171876597677758</v>
+        <v>0.03833936391491372</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003279202349293451</v>
+        <v>0.008431755578720503</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01224534363936915</v>
+        <v>0.09308652700400462</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9599235694156603</v>
+        <v>0.832851336359974</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2479,26 +2329,26 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_5.fasta</t>
+          <t>label_UMGS207_6.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.04006519010250487</v>
+        <v>0.03396341572868034</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9198887416055488</v>
+        <v>0.9407724611093592</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0006220591120801433</v>
+        <v>0.01384490149872393</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01106360922585964</v>
+        <v>0.006689565091117724</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0283603999540066</v>
+        <v>0.004729656572118829</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9198887416055488</v>
+        <v>0.9407724611093592</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2509,26 +2359,26 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_56.fasta</t>
+          <t>label_UMGS207_64.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0112897239700816</v>
+        <v>0.0102491640068325</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9310639245851046</v>
+        <v>0.9208252304925942</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0400365339593687</v>
+        <v>0.04497389759912409</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002557997876273174</v>
+        <v>0.004760954885733427</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01505181960917196</v>
+        <v>0.01919075301571573</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9310639245851046</v>
+        <v>0.9208252304925942</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2539,26 +2389,26 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_58.fasta</t>
+          <t>label_UMGS207_65.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01655386172338466</v>
+        <v>0.04300830929349959</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9599982046876838</v>
+        <v>0.6637399924213556</v>
       </c>
       <c r="D47" t="n">
-        <v>0.006645573600320013</v>
+        <v>0.07966832020225947</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004901045818185769</v>
+        <v>0.04012932188666963</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01190131417042582</v>
+        <v>0.1734540561962156</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9599982046876838</v>
+        <v>0.6637399924213556</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2569,26 +2419,26 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_69.fasta</t>
+          <t>label_UMGS207_66.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01953136259946685</v>
+        <v>0.0009332397254210202</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9015941364325897</v>
+        <v>0.918109598915466</v>
       </c>
       <c r="D48" t="n">
-        <v>0.008986579586818758</v>
+        <v>0.06955908839199816</v>
       </c>
       <c r="E48" t="n">
-        <v>0.006531323758389589</v>
+        <v>0.001874229148360027</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06335659762273523</v>
+        <v>0.009523843818754783</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9015941364325897</v>
+        <v>0.918109598915466</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2599,26 +2449,26 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_76.fasta</t>
+          <t>label_UMGS207_7.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0002693120207738839</v>
+        <v>0.01891464285547759</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9745397142558166</v>
+        <v>0.90655056832352</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01259146590264843</v>
+        <v>0.03857793165886363</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0001325116624104389</v>
+        <v>0.008843419603998998</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01246699615835064</v>
+        <v>0.02711343755813973</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9745397142558166</v>
+        <v>0.90655056832352</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2629,26 +2479,26 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_77.fasta</t>
+          <t>label_UMGS207_71.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.06559586670848547</v>
+        <v>0.04910612327664531</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6596978254987755</v>
+        <v>0.7091674936918868</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01837503475892409</v>
+        <v>0.07186302375977964</v>
       </c>
       <c r="E50" t="n">
-        <v>0.08121040232913405</v>
+        <v>0.05694975768924425</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1751208707046809</v>
+        <v>0.1129136015824441</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6596978254987755</v>
+        <v>0.7091674936918868</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2659,26 +2509,26 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_78.fasta</t>
+          <t>label_UMGS207_72.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.002400158081502143</v>
+        <v>0.003057283914655919</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9485902241769596</v>
+        <v>0.8128979954829662</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01811077823014399</v>
+        <v>0.09130956130101035</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0009466026167348127</v>
+        <v>0.0282855266406417</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02995223689465932</v>
+        <v>0.0644496326607259</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9485902241769596</v>
+        <v>0.8128979954829662</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2689,26 +2539,26 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_81.fasta</t>
+          <t>label_UMGS207_73.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.008466675465720601</v>
+        <v>0.02054231442298234</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9004593066776119</v>
+        <v>0.8244219503937975</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02086025082165012</v>
+        <v>0.06369033995080042</v>
       </c>
       <c r="E52" t="n">
-        <v>0.007374734115398531</v>
+        <v>0.03513241898547977</v>
       </c>
       <c r="F52" t="n">
-        <v>0.06283903291961894</v>
+        <v>0.05621297624693983</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9004593066776119</v>
+        <v>0.8244219503937975</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2719,26 +2569,26 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_84.fasta</t>
+          <t>label_UMGS207_79.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0006553005533055707</v>
+        <v>0.02152824259017194</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9196558097811633</v>
+        <v>0.8573891890243603</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06467581086223566</v>
+        <v>0.06797552096292934</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001137016400736887</v>
+        <v>0.02030015860058479</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01387606240255834</v>
+        <v>0.03280688882195364</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9196558097811633</v>
+        <v>0.8573891890243603</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2749,56 +2599,56 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_93.fasta</t>
+          <t>label_UMGS207_80.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.002711818722474787</v>
+        <v>0.003220602563575994</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4439584782054239</v>
+        <v>0.8183692156091363</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4850927313194622</v>
+        <v>0.08581289927243958</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01703752881401062</v>
+        <v>0.02702068219694134</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0511994429386284</v>
+        <v>0.06557660035790687</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4850927313194622</v>
+        <v>0.8183692156091363</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542295</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_94.fasta</t>
+          <t>label_UMGS207_86.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2397197575971289</v>
+        <v>0.002258611140522698</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4017933041772639</v>
+        <v>0.8638330409342996</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1522259787732961</v>
+        <v>0.07995968040388024</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1983799954510553</v>
+        <v>0.01053025391429666</v>
       </c>
       <c r="F55" t="n">
-        <v>0.007880964001255698</v>
+        <v>0.0434184136070009</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4017933041772639</v>
+        <v>0.8638330409342996</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2809,26 +2659,26 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_95.fasta</t>
+          <t>label_UMGS207_88.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02609478448526263</v>
+        <v>0.002185951988023107</v>
       </c>
       <c r="C56" t="n">
-        <v>0.752574903714704</v>
+        <v>0.8504710766018391</v>
       </c>
       <c r="D56" t="n">
-        <v>0.03321180341703169</v>
+        <v>0.08760861716126397</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07274307923306408</v>
+        <v>0.01575080724089237</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1153754291499377</v>
+        <v>0.04398354700798161</v>
       </c>
       <c r="G56" t="n">
-        <v>0.752574903714704</v>
+        <v>0.8504710766018391</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2839,26 +2689,26 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_1.fasta</t>
+          <t>label_UMGS207_9.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0257510959216669</v>
+        <v>0.02371554910988173</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8690056428870412</v>
+        <v>0.7696379217660547</v>
       </c>
       <c r="D57" t="n">
-        <v>0.09204991205985455</v>
+        <v>0.05690855787652997</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002886248755154404</v>
+        <v>0.01871267697956363</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01030710037628299</v>
+        <v>0.1310252942679699</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8690056428870412</v>
+        <v>0.7696379217660547</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2869,26 +2719,26 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_10.fasta</t>
+          <t>label_UMGS207_91.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0110545635340831</v>
+        <v>0.0001756155807071296</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9228549402872459</v>
+        <v>0.7239120318963139</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03755468844339013</v>
+        <v>0.1942390695457216</v>
       </c>
       <c r="E58" t="n">
-        <v>0.008131704442685172</v>
+        <v>0.03114143679386065</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02040410329259567</v>
+        <v>0.05053184618339678</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9228549402872459</v>
+        <v>0.7239120318963139</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2899,26 +2749,26 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_44.fasta</t>
+          <t>label_UMGS207_92.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02261779455402876</v>
+        <v>0.001324455964521729</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8968384703560849</v>
+        <v>0.9689238106962115</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05666727735413201</v>
+        <v>0.0133738000476863</v>
       </c>
       <c r="E59" t="n">
-        <v>0.003984524564171689</v>
+        <v>0.01634219436574144</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01989193317158265</v>
+        <v>3.573892583913117e-05</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8968384703560849</v>
+        <v>0.9689238106962115</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2929,26 +2779,26 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_48.fasta</t>
+          <t>label_UMGS207_11.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02218878845370063</v>
+        <v>2.525511796098008e-06</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9122707114669925</v>
+        <v>0.93476856416855</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02536317034787026</v>
+        <v>0.06130640783723731</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01243379793236054</v>
+        <v>0.0002606191222415887</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02774353179907608</v>
+        <v>0.003661883360175008</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9122707114669925</v>
+        <v>0.93476856416855</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2959,26 +2809,26 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_54.fasta</t>
+          <t>label_UMGS207_14.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01648103078552534</v>
+        <v>0.0008184732116449983</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9372411217451955</v>
+        <v>0.7660978319745358</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01993925029581433</v>
+        <v>0.2184796314678267</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004213789392611478</v>
+        <v>0.001760324891129588</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02212480778085331</v>
+        <v>0.01284373845486281</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9372411217451955</v>
+        <v>0.7660978319745358</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2989,26 +2839,26 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_59.fasta</t>
+          <t>label_UMGS207_16.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02729101714238712</v>
+        <v>3.645668284177298e-06</v>
       </c>
       <c r="C62" t="n">
-        <v>0.832851336359974</v>
+        <v>0.9636625607232934</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03833936391491372</v>
+        <v>0.03492014148207937</v>
       </c>
       <c r="E62" t="n">
-        <v>0.008431755578720503</v>
+        <v>0.0008108242924862726</v>
       </c>
       <c r="F62" t="n">
-        <v>0.09308652700400462</v>
+        <v>0.0006028278338567957</v>
       </c>
       <c r="G62" t="n">
-        <v>0.832851336359974</v>
+        <v>0.9636625607232934</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3019,26 +2869,26 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_6.fasta</t>
+          <t>label_UMGS207_19.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03396341572868034</v>
+        <v>1.516833160374781e-06</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9407724611093592</v>
+        <v>0.958687976199199</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01384490149872393</v>
+        <v>0.04079750850996084</v>
       </c>
       <c r="E63" t="n">
-        <v>0.006689565091117724</v>
+        <v>0.0004476450308399089</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004729656572118829</v>
+        <v>6.535342683986422e-05</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9407724611093592</v>
+        <v>0.958687976199199</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3049,26 +2899,26 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_64.fasta</t>
+          <t>label_UMGS207_22.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0102491640068325</v>
+        <v>2.04394526985759e-06</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9208252304925942</v>
+        <v>0.9759080678364839</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04497389759912409</v>
+        <v>0.0177394483990828</v>
       </c>
       <c r="E64" t="n">
-        <v>0.004760954885733427</v>
+        <v>0.002492577218556557</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01919075301571573</v>
+        <v>0.003857862600606931</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9208252304925942</v>
+        <v>0.9759080678364839</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3079,56 +2929,56 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_65.fasta</t>
+          <t>label_UMGS207_23.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.04300830929349959</v>
+        <v>4.925763732785474e-06</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6637399924213556</v>
+        <v>0.4245751891117276</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07966832020225947</v>
+        <v>0.06838781487415013</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04012932188666963</v>
+        <v>0.459552005909818</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1734540561962156</v>
+        <v>0.04748006434057146</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6637399924213556</v>
+        <v>0.459552005909818</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900540145</t>
+          <t>s__CAG-145 sp900542565</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_66.fasta</t>
+          <t>label_UMGS207_24.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0009332397254210202</v>
+        <v>0.000415596631985203</v>
       </c>
       <c r="C66" t="n">
-        <v>0.918109598915466</v>
+        <v>0.9708454988368668</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06955908839199816</v>
+        <v>0.02687224352236081</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001874229148360027</v>
+        <v>0.000564269339306049</v>
       </c>
       <c r="F66" t="n">
-        <v>0.009523843818754783</v>
+        <v>0.001302391669481155</v>
       </c>
       <c r="G66" t="n">
-        <v>0.918109598915466</v>
+        <v>0.9708454988368668</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3139,26 +2989,26 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_7.fasta</t>
+          <t>label_UMGS207_27.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01891464285547759</v>
+        <v>1.798456636235955e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>0.90655056832352</v>
+        <v>0.9487784320044271</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03857793165886363</v>
+        <v>0.04852830198445504</v>
       </c>
       <c r="E67" t="n">
-        <v>0.008843419603998998</v>
+        <v>0.002418533401563525</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02711343755813973</v>
+        <v>0.0002567480431919919</v>
       </c>
       <c r="G67" t="n">
-        <v>0.90655056832352</v>
+        <v>0.9487784320044271</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3169,26 +3019,26 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_71.fasta</t>
+          <t>label_UMGS207_31.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.04910612327664531</v>
+        <v>0.0007945942706220181</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7091674936918868</v>
+        <v>0.8199975283031565</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07186302375977964</v>
+        <v>0.08165302068283795</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05694975768924425</v>
+        <v>0.007028514705607582</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1129136015824441</v>
+        <v>0.090526342037776</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7091674936918868</v>
+        <v>0.8199975283031565</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3199,26 +3049,26 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_72.fasta</t>
+          <t>label_UMGS207_32.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.003057283914655919</v>
+        <v>2.036605910725031e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8128979954829662</v>
+        <v>0.8699076069546154</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09130956130101035</v>
+        <v>0.1226694528457019</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0282855266406417</v>
+        <v>0.006000435265696543</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0644496326607259</v>
+        <v>0.001402138874878922</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8128979954829662</v>
+        <v>0.8699076069546154</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3229,26 +3079,26 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_73.fasta</t>
+          <t>label_UMGS207_35.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02054231442298234</v>
+        <v>3.599875045374436e-06</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8244219503937975</v>
+        <v>0.8663709029350959</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06369033995080042</v>
+        <v>0.1334394450361673</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03513241898547977</v>
+        <v>0.0001670468155733138</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05621297624693983</v>
+        <v>1.900533811795188e-05</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8244219503937975</v>
+        <v>0.8663709029350959</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3259,26 +3109,26 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_79.fasta</t>
+          <t>label_UMGS207_39.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02152824259017194</v>
+        <v>6.203403355689143e-06</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8573891890243603</v>
+        <v>0.9599632319297993</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06797552096292934</v>
+        <v>0.03932411387862991</v>
       </c>
       <c r="E71" t="n">
-        <v>0.02030015860058479</v>
+        <v>0.0002662418099547049</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03280688882195364</v>
+        <v>0.0004402089782605979</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8573891890243603</v>
+        <v>0.9599632319297993</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3289,26 +3139,26 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_80.fasta</t>
+          <t>label_UMGS207_43.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.003220602563575994</v>
+        <v>2.21965408832897e-06</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8183692156091363</v>
+        <v>0.9450874077660234</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08581289927243958</v>
+        <v>0.05455999362956703</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02702068219694134</v>
+        <v>0.0002534299290381239</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06557660035790687</v>
+        <v>9.694902128306923e-05</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8183692156091363</v>
+        <v>0.9450874077660234</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3319,26 +3169,26 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_86.fasta</t>
+          <t>label_UMGS207_45.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.002258611140522698</v>
+        <v>0.0001797733401588962</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8638330409342996</v>
+        <v>0.4468506348659863</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07995968040388024</v>
+        <v>0.08796357720083314</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01053025391429666</v>
+        <v>0.05255649685771411</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0434184136070009</v>
+        <v>0.4124495177353076</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8638330409342996</v>
+        <v>0.4468506348659863</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3349,26 +3199,26 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_88.fasta</t>
+          <t>label_UMGS207_52.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.002185951988023107</v>
+        <v>1.735318002534298e-08</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8504710766018391</v>
+        <v>0.9399627619235322</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08760861716126397</v>
+        <v>0.06000965300312874</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01575080724089237</v>
+        <v>2.450304588982443e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04398354700798161</v>
+        <v>3.064674269106392e-06</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8504710766018391</v>
+        <v>0.9399627619235322</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3379,26 +3229,26 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_9.fasta</t>
+          <t>label_UMGS207_63.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02371554910988173</v>
+        <v>3.022798612789819e-09</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7696379217660547</v>
+        <v>0.959442824186427</v>
       </c>
       <c r="D75" t="n">
-        <v>0.05690855787652997</v>
+        <v>0.04053967015427751</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01871267697956363</v>
+        <v>1.468226415335374e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1310252942679699</v>
+        <v>2.82037234349123e-06</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7696379217660547</v>
+        <v>0.959442824186427</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3409,26 +3259,26 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_91.fasta</t>
+          <t>label_UMGS207_68.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0001756155807071296</v>
+        <v>4.737740130398995e-14</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7239120318963139</v>
+        <v>0.9118046763413056</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1942390695457216</v>
+        <v>0.08779029837804818</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03114143679386065</v>
+        <v>7.366358734751075e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>0.05053184618339678</v>
+        <v>0.0003313616932512267</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7239120318963139</v>
+        <v>0.9118046763413056</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3439,26 +3289,26 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_92.fasta</t>
+          <t>label_UMGS207_70.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001324455964521729</v>
+        <v>2.052237741220992e-11</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9689238106962115</v>
+        <v>0.9229780689510673</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0133738000476863</v>
+        <v>0.07685701505701907</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01634219436574144</v>
+        <v>4.990373070018992e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>3.573892583913117e-05</v>
+        <v>0.0001150122406911181</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9689238106962115</v>
+        <v>0.9229780689510673</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3469,26 +3319,26 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_11.fasta</t>
+          <t>label_UMGS207_74.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.525511796098008e-06</v>
+        <v>1.156674728951696e-08</v>
       </c>
       <c r="C78" t="n">
-        <v>0.93476856416855</v>
+        <v>0.9199866854606485</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06130640783723731</v>
+        <v>0.07089778630978638</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0002606191222415887</v>
+        <v>0.002070655461959049</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003661883360175008</v>
+        <v>0.007044861200858715</v>
       </c>
       <c r="G78" t="n">
-        <v>0.93476856416855</v>
+        <v>0.9199866854606485</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3499,26 +3349,26 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_14.fasta</t>
+          <t>label_UMGS207_75.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0008184732116449983</v>
+        <v>1.371346087986194e-06</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7660978319745358</v>
+        <v>0.8043983051058763</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2184796314678267</v>
+        <v>0.1150605490108883</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001760324891129588</v>
+        <v>0.02771701069076905</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01284373845486281</v>
+        <v>0.05282276384637846</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7660978319745358</v>
+        <v>0.8043983051058763</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3529,26 +3379,26 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_16.fasta</t>
+          <t>label_UMGS207_82.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3.645668284177298e-06</v>
+        <v>7.617244729041432e-13</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9636625607232934</v>
+        <v>0.9102630310319605</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03492014148207937</v>
+        <v>0.08280796939749796</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0008108242924862726</v>
+        <v>0.0001594772385840657</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006028278338567957</v>
+        <v>0.006769522331195737</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9636625607232934</v>
+        <v>0.9102630310319605</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3559,26 +3409,26 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_19.fasta</t>
+          <t>label_UMGS207_85.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.516833160374781e-06</v>
+        <v>2.219893173126171e-14</v>
       </c>
       <c r="C81" t="n">
-        <v>0.958687976199199</v>
+        <v>0.9497974878839358</v>
       </c>
       <c r="D81" t="n">
-        <v>0.04079750850996084</v>
+        <v>0.0500232403091288</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0004476450308399089</v>
+        <v>7.023439354270957e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>6.535342683986422e-05</v>
+        <v>0.0001090374133705017</v>
       </c>
       <c r="G81" t="n">
-        <v>0.958687976199199</v>
+        <v>0.9497974878839358</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3589,26 +3439,26 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_22.fasta</t>
+          <t>label_UMGS207_0.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.04394526985759e-06</v>
+        <v>0.02835587968081403</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9759080678364839</v>
+        <v>0.9462966372563699</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0177394483990828</v>
+        <v>0.003440016250782634</v>
       </c>
       <c r="E82" t="n">
-        <v>0.002492577218556557</v>
+        <v>0.01397348414429373</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003857862600606931</v>
+        <v>0.007933982667739588</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9759080678364839</v>
+        <v>0.9462966372563699</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3619,56 +3469,56 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_23.fasta</t>
+          <t>label_UMGS207_12.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.925763732785474e-06</v>
+        <v>0.01239741402525831</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4245751891117276</v>
+        <v>0.9424990582490603</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06838781487415013</v>
+        <v>0.03106006509604989</v>
       </c>
       <c r="E83" t="n">
-        <v>0.459552005909818</v>
+        <v>0.006833876543521676</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04748006434057146</v>
+        <v>0.007209586086109847</v>
       </c>
       <c r="G83" t="n">
-        <v>0.459552005909818</v>
+        <v>0.9424990582490603</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542565</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_24.fasta</t>
+          <t>label_UMGS207_13.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.000415596631985203</v>
+        <v>0.01126918619757378</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9708454988368668</v>
+        <v>0.9618343123243576</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02687224352236081</v>
+        <v>0.008047134734647547</v>
       </c>
       <c r="E84" t="n">
-        <v>0.000564269339306049</v>
+        <v>0.008408372540577976</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001302391669481155</v>
+        <v>0.01044099420284326</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9708454988368668</v>
+        <v>0.9618343123243576</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3679,26 +3529,26 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_27.fasta</t>
+          <t>label_UMGS207_15.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.798456636235955e-05</v>
+        <v>0.03981309967735506</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9487784320044271</v>
+        <v>0.9121055030712425</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04852830198445504</v>
+        <v>0.005416370415039069</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002418533401563525</v>
+        <v>0.01707414687394388</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0002567480431919919</v>
+        <v>0.02559087996241955</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9487784320044271</v>
+        <v>0.9121055030712425</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3709,26 +3559,26 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_31.fasta</t>
+          <t>label_UMGS207_18.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0007945942706220181</v>
+        <v>0.02418898536187658</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8199975283031565</v>
+        <v>0.913554753465906</v>
       </c>
       <c r="D86" t="n">
-        <v>0.08165302068283795</v>
+        <v>0.004163917259667614</v>
       </c>
       <c r="E86" t="n">
-        <v>0.007028514705607582</v>
+        <v>0.0179285567148364</v>
       </c>
       <c r="F86" t="n">
-        <v>0.090526342037776</v>
+        <v>0.04016378719771343</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8199975283031565</v>
+        <v>0.913554753465906</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3739,26 +3589,26 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_32.fasta</t>
+          <t>label_UMGS207_2.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.036605910725031e-05</v>
+        <v>0.01246034282732955</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8699076069546154</v>
+        <v>0.9457693306579218</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1226694528457019</v>
+        <v>0.005098028456594239</v>
       </c>
       <c r="E87" t="n">
-        <v>0.006000435265696543</v>
+        <v>0.007781990182921756</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001402138874878922</v>
+        <v>0.02889030787523269</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8699076069546154</v>
+        <v>0.9457693306579218</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3769,26 +3619,26 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_35.fasta</t>
+          <t>label_UMGS207_28.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3.599875045374436e-06</v>
+        <v>0.01189713508411512</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8663709029350959</v>
+        <v>0.9509679665624677</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1334394450361673</v>
+        <v>0.02597380022253372</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0001670468155733138</v>
+        <v>0.007087628861930749</v>
       </c>
       <c r="F88" t="n">
-        <v>1.900533811795188e-05</v>
+        <v>0.004073469268952645</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8663709029350959</v>
+        <v>0.9509679665624677</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3799,26 +3649,26 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_39.fasta</t>
+          <t>label_UMGS207_29.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6.203403355689143e-06</v>
+        <v>0.08792584800065664</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9599632319297993</v>
+        <v>0.8840190879702895</v>
       </c>
       <c r="D89" t="n">
-        <v>0.03932411387862991</v>
+        <v>0.001963051677598077</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0002662418099547049</v>
+        <v>0.0165007846447092</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0004402089782605979</v>
+        <v>0.009591227706746575</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9599632319297993</v>
+        <v>0.8840190879702895</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3829,26 +3679,26 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_43.fasta</t>
+          <t>label_UMGS207_30.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.21965408832897e-06</v>
+        <v>0.007756032710598994</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9450874077660234</v>
+        <v>0.9417461676292487</v>
       </c>
       <c r="D90" t="n">
-        <v>0.05455999362956703</v>
+        <v>0.005885957909004707</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0002534299290381239</v>
+        <v>0.004525303758735422</v>
       </c>
       <c r="F90" t="n">
-        <v>9.694902128306923e-05</v>
+        <v>0.04008653799241207</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9450874077660234</v>
+        <v>0.9417461676292487</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3859,26 +3709,26 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_45.fasta</t>
+          <t>label_UMGS207_34.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0001797733401588962</v>
+        <v>0.01544337051042348</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4468506348659863</v>
+        <v>0.9636231740441019</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08796357720083314</v>
+        <v>0.009434200014730634</v>
       </c>
       <c r="E91" t="n">
-        <v>0.05255649685771411</v>
+        <v>0.004254877553465527</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4124495177353076</v>
+        <v>0.007244377877278538</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4468506348659863</v>
+        <v>0.9636231740441019</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3889,26 +3739,26 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_52.fasta</t>
+          <t>label_UMGS207_37.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.735318002534298e-08</v>
+        <v>0.02018759586857784</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9399627619235322</v>
+        <v>0.9322790524093356</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06000965300312874</v>
+        <v>0.002678469723482089</v>
       </c>
       <c r="E92" t="n">
-        <v>2.450304588982443e-05</v>
+        <v>0.00558110390038077</v>
       </c>
       <c r="F92" t="n">
-        <v>3.064674269106392e-06</v>
+        <v>0.03927377809822361</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9399627619235322</v>
+        <v>0.9322790524093356</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3919,26 +3769,26 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_63.fasta</t>
+          <t>label_UMGS207_41.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3.022798612789819e-09</v>
+        <v>0.03251853229514567</v>
       </c>
       <c r="C93" t="n">
-        <v>0.959442824186427</v>
+        <v>0.9295348797161936</v>
       </c>
       <c r="D93" t="n">
-        <v>0.04053967015427751</v>
+        <v>0.01161885060408586</v>
       </c>
       <c r="E93" t="n">
-        <v>1.468226415335374e-05</v>
+        <v>0.01265769691219592</v>
       </c>
       <c r="F93" t="n">
-        <v>2.82037234349123e-06</v>
+        <v>0.01367004047237889</v>
       </c>
       <c r="G93" t="n">
-        <v>0.959442824186427</v>
+        <v>0.9295348797161936</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3949,26 +3799,26 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_68.fasta</t>
+          <t>label_UMGS207_46.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4.737740130398995e-14</v>
+        <v>0.02647329319604992</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9118046763413056</v>
+        <v>0.8971583335016315</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08779029837804818</v>
+        <v>0.01670714506408202</v>
       </c>
       <c r="E94" t="n">
-        <v>7.366358734751075e-05</v>
+        <v>0.03519123732996608</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0003313616932512267</v>
+        <v>0.02446999090827042</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9118046763413056</v>
+        <v>0.8971583335016315</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3979,26 +3829,26 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_70.fasta</t>
+          <t>label_UMGS207_47.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.052237741220992e-11</v>
+        <v>0.02018232823733309</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9229780689510673</v>
+        <v>0.941575950183886</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07685701505701907</v>
+        <v>0.001742002512947879</v>
       </c>
       <c r="E95" t="n">
-        <v>4.990373070018992e-05</v>
+        <v>0.001918243600244398</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0001150122406911181</v>
+        <v>0.03458147546558859</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9229780689510673</v>
+        <v>0.941575950183886</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4009,26 +3859,26 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_74.fasta</t>
+          <t>label_UMGS207_55.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.156674728951696e-08</v>
+        <v>0.01686271989088757</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9199866854606485</v>
+        <v>0.9371339850542397</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07089778630978638</v>
+        <v>0.001819574272643513</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002070655461959049</v>
+        <v>0.01621004245934789</v>
       </c>
       <c r="F96" t="n">
-        <v>0.007044861200858715</v>
+        <v>0.02797367832288124</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9199866854606485</v>
+        <v>0.9371339850542397</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4039,26 +3889,26 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_75.fasta</t>
+          <t>label_UMGS207_60.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.371346087986194e-06</v>
+        <v>0.01626588027809442</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8043983051058763</v>
+        <v>0.9584756774458247</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1150605490108883</v>
+        <v>0.01171208133662541</v>
       </c>
       <c r="E97" t="n">
-        <v>0.02771701069076905</v>
+        <v>0.003410813660865448</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05282276384637846</v>
+        <v>0.01013554727859002</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8043983051058763</v>
+        <v>0.9584756774458247</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4069,26 +3919,26 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_82.fasta</t>
+          <t>label_UMGS207_8.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7.617244729041432e-13</v>
+        <v>0.04198594810864129</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9102630310319605</v>
+        <v>0.9040759175946281</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08280796939749796</v>
+        <v>0.0214886264974998</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0001594772385840657</v>
+        <v>0.01880498921116161</v>
       </c>
       <c r="F98" t="n">
-        <v>0.006769522331195737</v>
+        <v>0.0136445185880691</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9102630310319605</v>
+        <v>0.9040759175946281</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4099,26 +3949,26 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_85.fasta</t>
+          <t>label_UMGS207_83.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.219893173126171e-14</v>
+        <v>0.01500281937957982</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9497974878839358</v>
+        <v>0.8737039196126226</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0500232403091288</v>
+        <v>0.01159511407826226</v>
       </c>
       <c r="E99" t="n">
-        <v>7.023439354270957e-05</v>
+        <v>0.0143119006794614</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0001090374133705017</v>
+        <v>0.08538624625007403</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9497974878839358</v>
+        <v>0.8737039196126226</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4129,568 +3979,28 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS207_0.fasta</t>
+          <t>label_UMGS207_96.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.02835587968081403</v>
+        <v>0.2086902853191611</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9462966372563699</v>
+        <v>0.2282335743780392</v>
       </c>
       <c r="D100" t="n">
-        <v>0.003440016250782634</v>
+        <v>0.2263397176553721</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01397348414429373</v>
+        <v>0.1779738681621889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.007933982667739588</v>
+        <v>0.1587625544852384</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9462966372563699</v>
+        <v>0.2282335743780392</v>
       </c>
       <c r="H100" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_12.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.01239741402525831</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.9424990582490603</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.03106006509604989</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.006833876543521676</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.007209586086109847</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.9424990582490603</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_13.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.01126918619757378</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.9618343123243576</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.008047134734647547</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.008408372540577976</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.01044099420284326</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.9618343123243576</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_15.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.03981309967735506</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.9121055030712425</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.005416370415039069</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.01707414687394388</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.02559087996241955</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.9121055030712425</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_18.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.02418898536187658</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.913554753465906</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.004163917259667614</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.0179285567148364</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.04016378719771343</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.913554753465906</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_2.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.01246034282732955</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.9457693306579218</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.005098028456594239</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.007781990182921756</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.02889030787523269</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.9457693306579218</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_28.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.01189713508411512</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.9509679665624677</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.02597380022253372</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.007087628861930749</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.004073469268952645</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.9509679665624677</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_29.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.08792584800065664</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.8840190879702895</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.001963051677598077</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.0165007846447092</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.009591227706746575</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.8840190879702895</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_30.fasta</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.007756032710598994</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.9417461676292487</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.005885957909004707</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.004525303758735422</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.04008653799241207</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.9417461676292487</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_34.fasta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.01544337051042348</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.9636231740441019</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.009434200014730634</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.004254877553465527</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.007244377877278538</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.9636231740441019</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_37.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.02018759586857784</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.9322790524093356</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.002678469723482089</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.00558110390038077</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.03927377809822361</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.9322790524093356</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_41.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.03251853229514567</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9295348797161936</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.01161885060408586</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.01265769691219592</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.01367004047237889</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.9295348797161936</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_46.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.02647329319604992</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.8971583335016315</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.01670714506408202</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.03519123732996608</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.02446999090827042</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.8971583335016315</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_47.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.02018232823733309</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.941575950183886</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.001742002512947879</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.001918243600244398</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.03458147546558859</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.941575950183886</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_55.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.01686271989088757</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9371339850542397</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.001819574272643513</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.01621004245934789</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.02797367832288124</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.9371339850542397</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_60.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.01626588027809442</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9584756774458247</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.01171208133662541</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.003410813660865448</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.01013554727859002</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.9584756774458247</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_8.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.04198594810864129</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9040759175946281</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.0214886264974998</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.01880498921116161</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.0136445185880691</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.9040759175946281</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_83.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.01500281937957982</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.8737039196126226</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.01159511407826226</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.0143119006794614</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.08538624625007403</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.8737039196126226</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS207_96.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.2086902853191611</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.2282335743780392</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.2263397176553721</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.1779738681621889</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.1587625544852384</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.2282335743780392</v>
-      </c>
-      <c r="H118" t="inlineStr">
         <is>
           <t>s__CAG-145 sp900540145</t>
         </is>
@@ -4707,7 +4017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5000,26 +4310,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_11.fasta</t>
+          <t>label_UMGS452_12.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02272012988423686</v>
+        <v>0.003763911745312036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1774627060529188</v>
+        <v>0.06613153294069159</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7435319034480542</v>
+        <v>0.9197409427321046</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0189128226227257</v>
+        <v>0.001765331665255226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03737243799206446</v>
+        <v>0.008598280916636556</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7435319034480542</v>
+        <v>0.9197409427321046</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -5030,26 +4340,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_15.fasta</t>
+          <t>label_UMGS452_3.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04614171458898995</v>
+        <v>0.004648683666334434</v>
       </c>
       <c r="C11" t="n">
-        <v>0.290588035888043</v>
+        <v>0.01981597664938501</v>
       </c>
       <c r="D11" t="n">
-        <v>0.597040463726444</v>
+        <v>0.9619413269816351</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006103525210570651</v>
+        <v>0.002595237674031075</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06012626058595241</v>
+        <v>0.01099877502861435</v>
       </c>
       <c r="G11" t="n">
-        <v>0.597040463726444</v>
+        <v>0.9619413269816351</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -5060,26 +4370,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_6.fasta</t>
+          <t>label_UMGS452_4.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01110161448086317</v>
+        <v>0.008049326089994025</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05126210038038256</v>
+        <v>0.01106020570685721</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9252570284080419</v>
+        <v>0.9573452915925195</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003024998756111334</v>
+        <v>0.001735872425811977</v>
       </c>
       <c r="F12" t="n">
-        <v>0.009354257974600853</v>
+        <v>0.0218093041848173</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9252570284080419</v>
+        <v>0.9573452915925195</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -5090,26 +4400,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_12.fasta</t>
+          <t>label_UMGS452_7.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003763911745312036</v>
+        <v>0.003401111444714275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06613153294069159</v>
+        <v>0.02442374995845949</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9197409427321046</v>
+        <v>0.9698575656115144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001765331665255226</v>
+        <v>0.001211895154891861</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008598280916636556</v>
+        <v>0.001105677830419998</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9197409427321046</v>
+        <v>0.9698575656115144</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -5120,26 +4430,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_3.fasta</t>
+          <t>label_UMGS452_10.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.004648683666334434</v>
+        <v>0.01286861580826614</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01981597664938501</v>
+        <v>0.1450580031805075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9619413269816351</v>
+        <v>0.8310373154446398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002595237674031075</v>
+        <v>0.002100196047411953</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01099877502861435</v>
+        <v>0.008935869519174614</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9619413269816351</v>
+        <v>0.8310373154446398</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -5150,26 +4460,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_4.fasta</t>
+          <t>label_UMGS452_17.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008049326089994025</v>
+        <v>0.02389261000445576</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01106020570685721</v>
+        <v>0.307996763893193</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9573452915925195</v>
+        <v>0.637942019907311</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001735872425811977</v>
+        <v>0.006048690722521576</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0218093041848173</v>
+        <v>0.02411991547251879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9573452915925195</v>
+        <v>0.637942019907311</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -5180,56 +4490,56 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_7.fasta</t>
+          <t>label_UMGS452_19.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003401111444714275</v>
+        <v>0.0009416714629232758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02442374995845949</v>
+        <v>0.764039741780231</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9698575656115144</v>
+        <v>0.2302388537338769</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001211895154891861</v>
+        <v>0.0007969359805520335</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001105677830419998</v>
+        <v>0.003982797042416797</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9698575656115144</v>
+        <v>0.764039741780231</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542295</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_10.fasta</t>
+          <t>label_UMGS452_8.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01286861580826614</v>
+        <v>0.01922070378818622</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1450580031805075</v>
+        <v>0.08256811772235251</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8310373154446398</v>
+        <v>0.8704111907678173</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002100196047411953</v>
+        <v>0.004980735878625007</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008935869519174614</v>
+        <v>0.02281925184301881</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8310373154446398</v>
+        <v>0.8704111907678173</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -5240,26 +4550,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_17.fasta</t>
+          <t>label_UMGS452_1.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02389261000445576</v>
+        <v>7.087769967104013e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.307996763893193</v>
+        <v>0.052780499039114</v>
       </c>
       <c r="D18" t="n">
-        <v>0.637942019907311</v>
+        <v>0.9447443271124977</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006048690722521576</v>
+        <v>0.002349489910021019</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02411991547251879</v>
+        <v>5.480623869633581e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.637942019907311</v>
+        <v>0.9447443271124977</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -5270,116 +4580,116 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_19.fasta</t>
+          <t>label_UMGS452_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0009416714629232758</v>
+        <v>3.438544007235051e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.764039741780231</v>
+        <v>0.1100172323829132</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2302388537338769</v>
+        <v>0.8883404125309657</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0007969359805520335</v>
+        <v>0.001597508903920173</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003982797042416797</v>
+        <v>1.046074212846334e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.764039741780231</v>
+        <v>0.8883404125309657</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900540145</t>
+          <t>s__CAG-145 sp900542295</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_8.fasta</t>
+          <t>label_UMGS452_16.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01922070378818622</v>
+        <v>3.14747299170303e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08256811772235251</v>
+        <v>0.7139881619858151</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8704111907678173</v>
+        <v>0.2690163675371497</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004980735878625007</v>
+        <v>0.0154092040756921</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02281925184301881</v>
+        <v>0.001554791671425996</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8704111907678173</v>
+        <v>0.7139881619858151</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542295</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_1.fasta</t>
+          <t>label_UMGS452_20.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.087769967104013e-05</v>
+        <v>5.758924125002239e-13</v>
       </c>
       <c r="C21" t="n">
-        <v>0.052780499039114</v>
+        <v>0.8885996178378794</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9447443271124977</v>
+        <v>0.1093669535648301</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002349489910021019</v>
+        <v>0.0006971704090842709</v>
       </c>
       <c r="F21" t="n">
-        <v>5.480623869633581e-05</v>
+        <v>0.001336258187630379</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9447443271124977</v>
+        <v>0.8885996178378794</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542295</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_13.fasta</t>
+          <t>label_UMGS452_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.438544007235051e-05</v>
+        <v>0.01575869512210031</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1100172323829132</v>
+        <v>0.007537321965304925</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8883404125309657</v>
+        <v>0.9685331862265136</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001597508903920173</v>
+        <v>0.004801536643187117</v>
       </c>
       <c r="F22" t="n">
-        <v>1.046074212846334e-05</v>
+        <v>0.003369260042893908</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8883404125309657</v>
+        <v>0.9685331862265136</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -5390,56 +4700,56 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_16.fasta</t>
+          <t>label_UMGS452_14.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.14747299170303e-05</v>
+        <v>0.01689851380199032</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7139881619858151</v>
+        <v>0.05828923052527335</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2690163675371497</v>
+        <v>0.9123993246867435</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0154092040756921</v>
+        <v>0.005054367397803301</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001554791671425996</v>
+        <v>0.007358563588189516</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7139881619858151</v>
+        <v>0.9123993246867435</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900540145</t>
+          <t>s__CAG-145 sp900542295</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_20.fasta</t>
+          <t>label_UMGS452_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.758924125002239e-13</v>
+        <v>0.03072537439816677</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8885996178378794</v>
+        <v>0.5639702815058486</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1093669535648301</v>
+        <v>0.3846420875166318</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0006971704090842709</v>
+        <v>0.01076245067581008</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001336258187630379</v>
+        <v>0.009899805903542768</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8885996178378794</v>
+        <v>0.5639702815058486</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -5450,26 +4760,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_0.fasta</t>
+          <t>label_UMGS452_2.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01575869512210031</v>
+        <v>0.01134004811382434</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007537321965304925</v>
+        <v>0.01125286623729385</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9685331862265136</v>
+        <v>0.9618907086499652</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004801536643187117</v>
+        <v>0.01018447511294713</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003369260042893908</v>
+        <v>0.00533190188596946</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9685331862265136</v>
+        <v>0.9618907086499652</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -5480,56 +4790,56 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_14.fasta</t>
+          <t>label_UMGS452_21.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01689851380199032</v>
+        <v>0.123987198376054</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05828923052527335</v>
+        <v>0.6851603757018034</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9123993246867435</v>
+        <v>0.1399682216014999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005054367397803301</v>
+        <v>0.03462280931026218</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007358563588189516</v>
+        <v>0.01626139501038034</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9123993246867435</v>
+        <v>0.6851603757018034</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542295</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_18.fasta</t>
+          <t>label_UMGS452_22.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03072537439816677</v>
+        <v>0.2867954993227101</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5639702815058486</v>
+        <v>0.4811661457468758</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3846420875166318</v>
+        <v>0.0461045743096146</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01076245067581008</v>
+        <v>0.179503100931381</v>
       </c>
       <c r="F27" t="n">
-        <v>0.009899805903542768</v>
+        <v>0.00643067968941833</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5639702815058486</v>
+        <v>0.4811661457468758</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -5540,26 +4850,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_2.fasta</t>
+          <t>label_UMGS452_5.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01134004811382434</v>
+        <v>0.009283519551526013</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01125286623729385</v>
+        <v>0.01928359935148817</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9618907086499652</v>
+        <v>0.9666532798988675</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01018447511294713</v>
+        <v>0.002454876164408753</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00533190188596946</v>
+        <v>0.002324725033709563</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9618907086499652</v>
+        <v>0.9666532798988675</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -5570,118 +4880,28 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS452_21.fasta</t>
+          <t>label_UMGS452_9.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.123987198376054</v>
+        <v>0.003627937964203539</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6851603757018034</v>
+        <v>0.06378516527721179</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1399682216014999</v>
+        <v>0.9290989953563642</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03462280931026218</v>
+        <v>0.0008907078104932662</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01626139501038034</v>
+        <v>0.002597193591727266</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6851603757018034</v>
+        <v>0.9290989953563642</v>
       </c>
       <c r="H29" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS452_22.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.2867954993227101</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.4811661457468758</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.0461045743096146</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.179503100931381</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.00643067968941833</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.4811661457468758</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS452_5.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.009283519551526013</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.01928359935148817</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.9666532798988675</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.002454876164408753</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.002324725033709563</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.9666532798988675</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542295</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS452_9.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.003627937964203539</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.06378516527721179</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.9290989953563642</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0008907078104932662</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.002597193591727266</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.9290989953563642</v>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>s__CAG-145 sp900542295</t>
         </is>
@@ -5698,7 +4918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6141,26 +5361,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_16.fasta</t>
+          <t>label_UMGS473_12.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003805936148508152</v>
+        <v>0.003146487349309641</v>
       </c>
       <c r="C15" t="n">
-        <v>8.655931643586068e-05</v>
+        <v>0.0003247489496604075</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001821913951776534</v>
+        <v>0.0001391669147706287</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9895786221398629</v>
+        <v>0.9921892258878834</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006346691000015459</v>
+        <v>0.004200370898375859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9895786221398629</v>
+        <v>0.9921892258878834</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -6171,26 +5391,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_18.fasta</t>
+          <t>label_UMGS473_15.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006608361201363923</v>
+        <v>0.01467482044525627</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003456290944801273</v>
+        <v>0.2396654879983285</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0002810556330613045</v>
+        <v>0.0007413825182506752</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9903015164571933</v>
+        <v>0.7375324048084855</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002463437613901305</v>
+        <v>0.007385904229679104</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9903015164571933</v>
+        <v>0.7375324048084855</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -6201,26 +5421,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_2.fasta</t>
+          <t>label_UMGS473_17.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01185322328316188</v>
+        <v>0.002675794906285543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000683991226083801</v>
+        <v>4.084471406129612e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001408410837800077</v>
+        <v>2.420271637871911e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9828347681587704</v>
+        <v>0.9841961536391788</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003219606494183921</v>
+        <v>0.01308478646883651</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9828347681587704</v>
+        <v>0.9841961536391788</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -6231,26 +5451,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_25.fasta</t>
+          <t>label_UMGS473_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00788724347189854</v>
+        <v>0.00369293282804394</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004238948196978738</v>
+        <v>0.0006068815753089398</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0004097535074280464</v>
+        <v>0.000179033678354394</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9852327178945675</v>
+        <v>0.985627840580206</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006046390306407977</v>
+        <v>0.009893311338086552</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9852327178945675</v>
+        <v>0.985627840580206</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -6261,26 +5481,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_26.fasta</t>
+          <t>label_UMGS473_22.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09160002518642157</v>
+        <v>0.003661973491026095</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07984093529387183</v>
+        <v>9.850666752484459e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009181048311571986</v>
+        <v>1.658962072511059e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7648271455729811</v>
+        <v>0.9920803373896355</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0545508456351535</v>
+        <v>0.004157523489740901</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7648271455729811</v>
+        <v>0.9920803373896355</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -6291,26 +5511,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_3.fasta</t>
+          <t>label_UMGS473_27.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003376835736972898</v>
+        <v>0.01215523043100929</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006374807768515035</v>
+        <v>0.0007849635264424452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00062468117052091</v>
+        <v>4.06482389061307e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.952892792549938</v>
+        <v>0.9811076203086494</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03673088277405329</v>
+        <v>0.005911537494992736</v>
       </c>
       <c r="G20" t="n">
-        <v>0.952892792549938</v>
+        <v>0.9811076203086494</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -6321,26 +5541,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_33.fasta</t>
+          <t>label_UMGS473_30.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02665089204845849</v>
+        <v>0.01089119994477588</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03497831852327294</v>
+        <v>0.0007506433453647699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006025309809991401</v>
+        <v>2.280642739829023e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9053802548360672</v>
+        <v>0.9856780930953229</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02696522478220995</v>
+        <v>0.002657257187138115</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9053802548360672</v>
+        <v>0.9856780930953229</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -6351,26 +5571,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_38.fasta</t>
+          <t>label_UMGS473_31.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01517970220580345</v>
+        <v>0.00470870538118395</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03108348298799169</v>
+        <v>0.0001935983176474565</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003338130078317696</v>
+        <v>4.427686471889829e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.932064951079583</v>
+        <v>0.9627099548833914</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01833373364830421</v>
+        <v>0.03234346455305826</v>
       </c>
       <c r="G22" t="n">
-        <v>0.932064951079583</v>
+        <v>0.9627099548833914</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -6381,26 +5601,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_4.fasta</t>
+          <t>label_UMGS473_32.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0117067028037199</v>
+        <v>0.007633212674273225</v>
       </c>
       <c r="C23" t="n">
-        <v>8.54391448506402e-05</v>
+        <v>0.0004956722352733528</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0004169778958558886</v>
+        <v>3.571177608220709e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9860860179336737</v>
+        <v>0.986538434234728</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001704862221899895</v>
+        <v>0.00532910967811719</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9860860179336737</v>
+        <v>0.986538434234728</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -6411,26 +5631,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_45.fasta</t>
+          <t>label_UMGS473_37.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01134659632861116</v>
+        <v>0.007619801901380518</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001174233944360478</v>
+        <v>0.001173156223209387</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0002184004894790086</v>
+        <v>1.593978801138135e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9759103557467063</v>
+        <v>0.9872354438698635</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01135041349084307</v>
+        <v>0.003970004026745586</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9759103557467063</v>
+        <v>0.9872354438698635</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -6441,26 +5661,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_49.fasta</t>
+          <t>label_UMGS473_41.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009175885799788135</v>
+        <v>0.02044986666290923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001432710342709799</v>
+        <v>0.002325009595918041</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001792894900715855</v>
+        <v>3.333853504160347e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9813945349753643</v>
+        <v>0.9604763007561437</v>
       </c>
       <c r="F25" t="n">
-        <v>0.007817579392066162</v>
+        <v>0.01671548444998757</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9813945349753643</v>
+        <v>0.9604763007561437</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -6471,26 +5691,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_55.fasta</t>
+          <t>label_UMGS473_44.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0191313125540034</v>
+        <v>0.008505823980881183</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004986598369218941</v>
+        <v>0.00367243651267322</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0005718571178893773</v>
+        <v>4.862990340734692e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9637601227780453</v>
+        <v>0.9799622733642931</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01155010918084304</v>
+        <v>0.00781083623874518</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9637601227780453</v>
+        <v>0.9799622733642931</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -6501,26 +5721,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_57.fasta</t>
+          <t>label_UMGS473_47.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.007157893046637965</v>
+        <v>0.01058290694724804</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003073453491749679</v>
+        <v>0.002574302752404941</v>
       </c>
       <c r="D27" t="n">
-        <v>8.067432588766277e-06</v>
+        <v>0.0001133759675466021</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9813846834669906</v>
+        <v>0.9712215556512345</v>
       </c>
       <c r="F27" t="n">
-        <v>0.008375902562032977</v>
+        <v>0.01550785868156604</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9813846834669906</v>
+        <v>0.9712215556512345</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -6531,26 +5751,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_59.fasta</t>
+          <t>label_UMGS473_48.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01428285849360272</v>
+        <v>0.01784878734245022</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005408495416439028</v>
+        <v>0.004856266717911078</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001183360115043718</v>
+        <v>0.0004359874290784508</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9652845149061403</v>
+        <v>0.953650945688988</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01490579517231358</v>
+        <v>0.02320801282157224</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9652845149061403</v>
+        <v>0.953650945688988</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -6561,26 +5781,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_6.fasta</t>
+          <t>label_UMGS473_53.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007700083512498971</v>
+        <v>0.01467584499107064</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002270564113594475</v>
+        <v>0.001767736019238631</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0005852258687156856</v>
+        <v>0.0001174023347705846</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9887757539646885</v>
+        <v>0.9597266671460354</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002711880242737339</v>
+        <v>0.02371234950888479</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9887757539646885</v>
+        <v>0.9597266671460354</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -6591,26 +5811,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_70.fasta</t>
+          <t>label_UMGS473_61.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008536173069908986</v>
+        <v>0.01487024881773643</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01512559890443244</v>
+        <v>0.00279237270839285</v>
       </c>
       <c r="D30" t="n">
-        <v>2.536128137447576e-05</v>
+        <v>8.364030737360695e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9629179733256185</v>
+        <v>0.9467771294464374</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01339489341866561</v>
+        <v>0.03555188499669589</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9629179733256185</v>
+        <v>0.9467771294464374</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -6621,26 +5841,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_72.fasta</t>
+          <t>label_UMGS473_63.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01666500015296377</v>
+        <v>0.01998276703375274</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2191208016872013</v>
+        <v>0.04058705955509834</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002936712127570271</v>
+        <v>6.735408335681003e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.723561913373703</v>
+        <v>0.9253651508055484</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03771557265856169</v>
+        <v>0.01399766852224367</v>
       </c>
       <c r="G31" t="n">
-        <v>0.723561913373703</v>
+        <v>0.9253651508055484</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -6651,26 +5871,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_73.fasta</t>
+          <t>label_UMGS473_66.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007210314269598929</v>
+        <v>0.009627899578669316</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07910124638913339</v>
+        <v>0.01070100874710133</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001095230022900156</v>
+        <v>1.487172608639259e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8759251643904161</v>
+        <v>0.9506759740236357</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03765375194856158</v>
+        <v>0.02899363047798512</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8759251643904161</v>
+        <v>0.9506759740236357</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -6681,26 +5901,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_75.fasta</t>
+          <t>label_UMGS473_7.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01015640421786699</v>
+        <v>0.001292330532944978</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1958720642844986</v>
+        <v>8.19582274126377e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0009106796486700792</v>
+        <v>9.092412912244642e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7047761720670723</v>
+        <v>0.9895229565285587</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08828467978189194</v>
+        <v>0.00901183058196108</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7047761720670723</v>
+        <v>0.9895229565285587</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -6711,26 +5931,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_78.fasta</t>
+          <t>label_UMGS473_81.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0002793911319298753</v>
+        <v>0.0009853271371372517</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1510642298064127</v>
+        <v>0.4409557072228248</v>
       </c>
       <c r="D34" t="n">
-        <v>1.5305441337677e-08</v>
+        <v>4.61465612567859e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8299111720385586</v>
+        <v>0.4815501162941802</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01874519171765757</v>
+        <v>0.07646270278460085</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8299111720385586</v>
+        <v>0.4815501162941802</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -6741,26 +5961,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_79.fasta</t>
+          <t>label_UMGS473_82.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002780223844434711</v>
+        <v>4.075729337577829e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1318382723873764</v>
+        <v>0.007746426276073615</v>
       </c>
       <c r="D35" t="n">
-        <v>5.147009772794984e-06</v>
+        <v>3.148696350944713e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8440582739268051</v>
+        <v>0.6058888621884729</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02131808283161089</v>
+        <v>0.3863239542417629</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8440582739268051</v>
+        <v>0.6058888621884729</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -6771,56 +5991,56 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_12.fasta</t>
+          <t>label_UMGS473_83.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.003146487349309641</v>
+        <v>0.002869440918248639</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0003247489496604075</v>
+        <v>0.376666661467075</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0001391669147706287</v>
+        <v>0.006997126703900478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9921892258878834</v>
+        <v>0.284276336893002</v>
       </c>
       <c r="F36" t="n">
-        <v>0.004200370898375859</v>
+        <v>0.3291904340177738</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9921892258878834</v>
+        <v>0.376666661467075</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542565</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_15.fasta</t>
+          <t>label_UMGS473_14.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01467482044525627</v>
+        <v>0.001048968205098201</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2396654879983285</v>
+        <v>0.0007141872122892269</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0007413825182506752</v>
+        <v>0.002113343629858974</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7375324048084855</v>
+        <v>0.9631852049726377</v>
       </c>
       <c r="F37" t="n">
-        <v>0.007385904229679104</v>
+        <v>0.03293829598011593</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7375324048084855</v>
+        <v>0.9631852049726377</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -6831,26 +6051,26 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_17.fasta</t>
+          <t>label_UMGS473_20.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.002675794906285543</v>
+        <v>0.01711363910830045</v>
       </c>
       <c r="C38" t="n">
-        <v>4.084471406129612e-05</v>
+        <v>0.01485678339206529</v>
       </c>
       <c r="D38" t="n">
-        <v>2.420271637871911e-06</v>
+        <v>0.03519253035487789</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9841961536391788</v>
+        <v>0.9242666210595351</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01308478646883651</v>
+        <v>0.00857042608522132</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9841961536391788</v>
+        <v>0.9242666210595351</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -6861,26 +6081,26 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_19.fasta</t>
+          <t>label_UMGS473_21.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00369293282804394</v>
+        <v>0.005033466576258889</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0006068815753089398</v>
+        <v>0.001781876520321143</v>
       </c>
       <c r="D39" t="n">
-        <v>0.000179033678354394</v>
+        <v>0.005257900617495193</v>
       </c>
       <c r="E39" t="n">
-        <v>0.985627840580206</v>
+        <v>0.9815499150395114</v>
       </c>
       <c r="F39" t="n">
-        <v>0.009893311338086552</v>
+        <v>0.006376841246413354</v>
       </c>
       <c r="G39" t="n">
-        <v>0.985627840580206</v>
+        <v>0.9815499150395114</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -6891,26 +6111,26 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_22.fasta</t>
+          <t>label_UMGS473_24.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.003661973491026095</v>
+        <v>0.003331670129351897</v>
       </c>
       <c r="C40" t="n">
-        <v>9.850666752484459e-05</v>
+        <v>0.0003937944780679655</v>
       </c>
       <c r="D40" t="n">
-        <v>1.658962072511059e-06</v>
+        <v>0.002568029819195999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9920803373896355</v>
+        <v>0.9736176558125643</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004157523489740901</v>
+        <v>0.02008884976081969</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9920803373896355</v>
+        <v>0.9736176558125643</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -6921,26 +6141,26 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_27.fasta</t>
+          <t>label_UMGS473_29.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01215523043100929</v>
+        <v>0.00752481009131776</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0007849635264424452</v>
+        <v>0.0008699927854585489</v>
       </c>
       <c r="D41" t="n">
-        <v>4.06482389061307e-05</v>
+        <v>0.003156407525341766</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9811076203086494</v>
+        <v>0.977034744538181</v>
       </c>
       <c r="F41" t="n">
-        <v>0.005911537494992736</v>
+        <v>0.01141404505970104</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9811076203086494</v>
+        <v>0.977034744538181</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -6951,26 +6171,26 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_30.fasta</t>
+          <t>label_UMGS473_39.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01089119994477588</v>
+        <v>0.03035069829129152</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0007506433453647699</v>
+        <v>0.00298852550158027</v>
       </c>
       <c r="D42" t="n">
-        <v>2.280642739829023e-05</v>
+        <v>0.012487201609968</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9856780930953229</v>
+        <v>0.8392728345553327</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002657257187138115</v>
+        <v>0.1149007400418274</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9856780930953229</v>
+        <v>0.8392728345553327</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -6981,26 +6201,26 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_31.fasta</t>
+          <t>label_UMGS473_46.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.00470870538118395</v>
+        <v>0.01532143612893299</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001935983176474565</v>
+        <v>0.003677400596350724</v>
       </c>
       <c r="D43" t="n">
-        <v>4.427686471889829e-05</v>
+        <v>0.004296995924200003</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9627099548833914</v>
+        <v>0.9651692604377548</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03234346455305826</v>
+        <v>0.01153490691276152</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9627099548833914</v>
+        <v>0.9651692604377548</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -7011,26 +6231,26 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_32.fasta</t>
+          <t>label_UMGS473_51.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007633212674273225</v>
+        <v>0.01804728460992447</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0004956722352733528</v>
+        <v>0.003484815532010319</v>
       </c>
       <c r="D44" t="n">
-        <v>3.571177608220709e-06</v>
+        <v>0.005045587971737188</v>
       </c>
       <c r="E44" t="n">
-        <v>0.986538434234728</v>
+        <v>0.9399404231666612</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00532910967811719</v>
+        <v>0.03348188871966684</v>
       </c>
       <c r="G44" t="n">
-        <v>0.986538434234728</v>
+        <v>0.9399404231666612</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -7041,26 +6261,26 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_37.fasta</t>
+          <t>label_UMGS473_52.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.007619801901380518</v>
+        <v>0.0161862675744798</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001173156223209387</v>
+        <v>0.01525723038563049</v>
       </c>
       <c r="D45" t="n">
-        <v>1.593978801138135e-06</v>
+        <v>0.006903524936985053</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9872354438698635</v>
+        <v>0.9513166551525039</v>
       </c>
       <c r="F45" t="n">
-        <v>0.003970004026745586</v>
+        <v>0.01033632195040078</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9872354438698635</v>
+        <v>0.9513166551525039</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -7071,26 +6291,26 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_41.fasta</t>
+          <t>label_UMGS473_56.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02044986666290923</v>
+        <v>0.01546588440839201</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002325009595918041</v>
+        <v>0.00837050849982281</v>
       </c>
       <c r="D46" t="n">
-        <v>3.333853504160347e-05</v>
+        <v>0.000631653218085959</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9604763007561437</v>
+        <v>0.9584548735335811</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01671548444998757</v>
+        <v>0.01707708034011807</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9604763007561437</v>
+        <v>0.9584548735335811</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -7101,56 +6321,56 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_44.fasta</t>
+          <t>label_UMGS473_62.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.008505823980881183</v>
+        <v>0.1067201992270037</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00367243651267322</v>
+        <v>0.4531481999995435</v>
       </c>
       <c r="D47" t="n">
-        <v>4.862990340734692e-05</v>
+        <v>0.09773305545421766</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9799622733642931</v>
+        <v>0.1725401796865854</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00781083623874518</v>
+        <v>0.1698583656326497</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9799622733642931</v>
+        <v>0.4531481999995435</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542565</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_47.fasta</t>
+          <t>label_UMGS473_68.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01058290694724804</v>
+        <v>0.1964544572296865</v>
       </c>
       <c r="C48" t="n">
-        <v>0.002574302752404941</v>
+        <v>0.160318322301629</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0001133759675466021</v>
+        <v>0.0003091275659666829</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9712215556512345</v>
+        <v>0.6416596816186527</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01550785868156604</v>
+        <v>0.001258411284065102</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9712215556512345</v>
+        <v>0.6416596816186527</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -7161,26 +6381,26 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_48.fasta</t>
+          <t>label_UMGS473_71.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01784878734245022</v>
+        <v>0.0192030618163556</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004856266717911078</v>
+        <v>0.04179787715923208</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0004359874290784508</v>
+        <v>0.008061133838642268</v>
       </c>
       <c r="E49" t="n">
-        <v>0.953650945688988</v>
+        <v>0.8905218278698022</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02320801282157224</v>
+        <v>0.04041609931596788</v>
       </c>
       <c r="G49" t="n">
-        <v>0.953650945688988</v>
+        <v>0.8905218278698022</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -7191,26 +6411,26 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_53.fasta</t>
+          <t>label_UMGS473_76.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01467584499107064</v>
+        <v>0.01260689723914514</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001767736019238631</v>
+        <v>0.0394737448719114</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0001174023347705846</v>
+        <v>0.00168879663778285</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9597266671460354</v>
+        <v>0.8924627878828401</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02371234950888479</v>
+        <v>0.05376777336832049</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9597266671460354</v>
+        <v>0.8924627878828401</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -7221,26 +6441,26 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_61.fasta</t>
+          <t>label_UMGS473_0.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01487024881773643</v>
+        <v>2.763831399406128e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00279237270839285</v>
+        <v>8.958589490411905e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>8.364030737360695e-06</v>
+        <v>0.01724504225593173</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9467771294464374</v>
+        <v>0.9826215780096246</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03555188499669589</v>
+        <v>4.351745639965196e-05</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9467771294464374</v>
+        <v>0.9826215780096246</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -7251,26 +6471,26 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_63.fasta</t>
+          <t>label_UMGS473_1.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01998276703375274</v>
+        <v>1.893646304793074e-09</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04058705955509834</v>
+        <v>1.937640771119203e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>6.735408335681003e-05</v>
+        <v>0.008852654548401621</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9253651508055484</v>
+        <v>0.9907159949769796</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01399766852224367</v>
+        <v>0.0004119721732612882</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9253651508055484</v>
+        <v>0.9907159949769796</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -7281,26 +6501,26 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_66.fasta</t>
+          <t>label_UMGS473_11.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.009627899578669316</v>
+        <v>6.611350199548674e-08</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01070100874710133</v>
+        <v>1.147573005384791e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>1.487172608639259e-06</v>
+        <v>0.01152807168351798</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9506759740236357</v>
+        <v>0.9878203145508225</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02899363047798512</v>
+        <v>0.0006400719221036639</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9506759740236357</v>
+        <v>0.9878203145508225</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -7311,26 +6531,26 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_7.fasta</t>
+          <t>label_UMGS473_23.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.001292330532944978</v>
+        <v>1.766958021158234e-07</v>
       </c>
       <c r="C54" t="n">
-        <v>8.19582274126377e-05</v>
+        <v>2.962348447692455e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>9.092412912244642e-05</v>
+        <v>0.002955971848478698</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9895229565285587</v>
+        <v>0.9970021989463861</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00901183058196108</v>
+        <v>1.202902485624665e-05</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9895229565285587</v>
+        <v>0.9970021989463861</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -7341,26 +6561,26 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_81.fasta</t>
+          <t>label_UMGS473_35.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0009853271371372517</v>
+        <v>4.034300335438418e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4409557072228248</v>
+        <v>3.557940663797978e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>4.61465612567859e-05</v>
+        <v>0.003108091394825728</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4815501162941802</v>
+        <v>0.9965538977205335</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07646270278460085</v>
+        <v>0.0003020280479692107</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4815501162941802</v>
+        <v>0.9965538977205335</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -7371,26 +6591,26 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_82.fasta</t>
+          <t>label_UMGS473_36.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.075729337577829e-05</v>
+        <v>3.268630086711083e-06</v>
       </c>
       <c r="C56" t="n">
-        <v>0.007746426276073615</v>
+        <v>0.0001540406500327412</v>
       </c>
       <c r="D56" t="n">
-        <v>3.148696350944713e-13</v>
+        <v>0.007349015885428899</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6058888621884729</v>
+        <v>0.9922275571740772</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3863239542417629</v>
+        <v>0.0002661176603744021</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6058888621884729</v>
+        <v>0.9922275571740772</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -7401,56 +6621,56 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_83.fasta</t>
+          <t>label_UMGS473_40.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.002869440918248639</v>
+        <v>1.409223171044354e-07</v>
       </c>
       <c r="C57" t="n">
-        <v>0.376666661467075</v>
+        <v>6.625647708895826e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006997126703900478</v>
+        <v>0.002063859103576128</v>
       </c>
       <c r="E57" t="n">
-        <v>0.284276336893002</v>
+        <v>0.9978435254660997</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3291904340177738</v>
+        <v>2.621803091810605e-05</v>
       </c>
       <c r="G57" t="n">
-        <v>0.376666661467075</v>
+        <v>0.9978435254660997</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900540145</t>
+          <t>s__CAG-145 sp900542565</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_14.fasta</t>
+          <t>label_UMGS473_43.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.001048968205098201</v>
+        <v>2.311605387015936e-06</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0007141872122892269</v>
+        <v>0.0002540166128702872</v>
       </c>
       <c r="D58" t="n">
-        <v>0.002113343629858974</v>
+        <v>0.006016111592719983</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9631852049726377</v>
+        <v>0.9935457146203527</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03293829598011593</v>
+        <v>0.0001818455686700921</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9631852049726377</v>
+        <v>0.9935457146203527</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -7461,26 +6681,26 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_20.fasta</t>
+          <t>label_UMGS473_5.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01711363910830045</v>
+        <v>2.502535433921616e-06</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01485678339206529</v>
+        <v>0.02988331960140917</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03519253035487789</v>
+        <v>0.01396964377725617</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9242666210595351</v>
+        <v>0.9556893499358032</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00857042608522132</v>
+        <v>0.0004551841500974011</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9242666210595351</v>
+        <v>0.9556893499358032</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -7491,56 +6711,56 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_21.fasta</t>
+          <t>label_UMGS473_58.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.005033466576258889</v>
+        <v>0.00103731456822479</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001781876520321143</v>
+        <v>0.3645067736926682</v>
       </c>
       <c r="D60" t="n">
-        <v>0.005257900617495193</v>
+        <v>0.1330230593919429</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9815499150395114</v>
+        <v>0.1786597537730857</v>
       </c>
       <c r="F60" t="n">
-        <v>0.006376841246413354</v>
+        <v>0.3227730985740784</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9815499150395114</v>
+        <v>0.3645067736926682</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542565</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_24.fasta</t>
+          <t>label_UMGS473_60.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.003331670129351897</v>
+        <v>2.157380798530062e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0003937944780679655</v>
+        <v>0.008167899273679554</v>
       </c>
       <c r="D61" t="n">
-        <v>0.002568029819195999</v>
+        <v>0.00290378989449218</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9736176558125643</v>
+        <v>0.9861419383697257</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02008884976081969</v>
+        <v>0.002786156724022562</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9736176558125643</v>
+        <v>0.9861419383697257</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -7551,26 +6771,26 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_29.fasta</t>
+          <t>label_UMGS473_65.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.00752481009131776</v>
+        <v>1.278724860072649e-09</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0008699927854585489</v>
+        <v>0.004053173010054608</v>
       </c>
       <c r="D62" t="n">
-        <v>0.003156407525341766</v>
+        <v>0.001372065180299571</v>
       </c>
       <c r="E62" t="n">
-        <v>0.977034744538181</v>
+        <v>0.9918919997643376</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01141404505970104</v>
+        <v>0.002682760766583316</v>
       </c>
       <c r="G62" t="n">
-        <v>0.977034744538181</v>
+        <v>0.9918919997643376</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -7581,26 +6801,26 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_39.fasta</t>
+          <t>label_UMGS473_69.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03035069829129152</v>
+        <v>4.156733380437469e-06</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00298852550158027</v>
+        <v>0.07471048311356053</v>
       </c>
       <c r="D63" t="n">
-        <v>0.012487201609968</v>
+        <v>0.01245343113501182</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8392728345553327</v>
+        <v>0.8937191062755732</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1149007400418274</v>
+        <v>0.01911282274247398</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8392728345553327</v>
+        <v>0.8937191062755732</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -7611,86 +6831,86 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_46.fasta</t>
+          <t>label_UMGS473_74.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01532143612893299</v>
+        <v>8.312339793163623e-13</v>
       </c>
       <c r="C64" t="n">
-        <v>0.003677400596350724</v>
+        <v>0.3495375368704371</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004296995924200003</v>
+        <v>0.01437366965215218</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9651692604377548</v>
+        <v>0.1476258235631918</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01153490691276152</v>
+        <v>0.4884629699133876</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9651692604377548</v>
+        <v>0.4884629699133876</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542565</t>
+          <t>s__CAG-145 sp900545135</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_51.fasta</t>
+          <t>label_UMGS473_84.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01804728460992447</v>
+        <v>2.699623620324763e-14</v>
       </c>
       <c r="C65" t="n">
-        <v>0.003484815532010319</v>
+        <v>0.330171154002595</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005045587971737188</v>
+        <v>0.0004478913906199703</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9399404231666612</v>
+        <v>0.3285644218971097</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03348188871966684</v>
+        <v>0.3408165327096483</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9399404231666612</v>
+        <v>0.3408165327096483</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542565</t>
+          <t>s__CAG-145 sp900545135</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_52.fasta</t>
+          <t>label_UMGS473_10.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0161862675744798</v>
+        <v>0.006613734465536566</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01525723038563049</v>
+        <v>3.631330797656904e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>0.006903524936985053</v>
+        <v>0.0004111238407104217</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9513166551525039</v>
+        <v>0.990740332852641</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01033632195040078</v>
+        <v>0.0021984955331354</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9513166551525039</v>
+        <v>0.990740332852641</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -7701,26 +6921,26 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_56.fasta</t>
+          <t>label_UMGS473_13.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01546588440839201</v>
+        <v>0.007264595148792958</v>
       </c>
       <c r="C67" t="n">
-        <v>0.00837050849982281</v>
+        <v>8.588744201100893e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>0.000631653218085959</v>
+        <v>0.0008471774132873189</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9584548735335811</v>
+        <v>0.9146402030349433</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01707708034011807</v>
+        <v>0.07716213696096531</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9584548735335811</v>
+        <v>0.9146402030349433</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -7731,56 +6951,56 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_62.fasta</t>
+          <t>label_UMGS473_28.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1067201992270037</v>
+        <v>0.01601094517176526</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4531481999995435</v>
+        <v>0.2517683861994187</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09773305545421766</v>
+        <v>0.005889794916312858</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1725401796865854</v>
+        <v>0.7208930592645042</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1698583656326497</v>
+        <v>0.005437814447999068</v>
       </c>
       <c r="G68" t="n">
-        <v>0.4531481999995435</v>
+        <v>0.7208930592645042</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900540145</t>
+          <t>s__CAG-145 sp900542565</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_68.fasta</t>
+          <t>label_UMGS473_34.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1964544572296865</v>
+        <v>0.02123065965688933</v>
       </c>
       <c r="C69" t="n">
-        <v>0.160318322301629</v>
+        <v>0.001515264328180898</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0003091275659666829</v>
+        <v>0.001404235622900798</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6416596816186527</v>
+        <v>0.9700823779751474</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001258411284065102</v>
+        <v>0.005767462416881443</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6416596816186527</v>
+        <v>0.9700823779751474</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -7791,26 +7011,26 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_71.fasta</t>
+          <t>label_UMGS473_42.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0192030618163556</v>
+        <v>0.02116252415406438</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04179787715923208</v>
+        <v>0.002086409043058896</v>
       </c>
       <c r="D70" t="n">
-        <v>0.008061133838642268</v>
+        <v>0.001880993102546849</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8905218278698022</v>
+        <v>0.9544386412520257</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04041609931596788</v>
+        <v>0.02043143244830424</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8905218278698022</v>
+        <v>0.9544386412520257</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -7821,26 +7041,26 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_76.fasta</t>
+          <t>label_UMGS473_50.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01260689723914514</v>
+        <v>0.01405721016804276</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0394737448719114</v>
+        <v>0.1134270835674816</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00168879663778285</v>
+        <v>0.001900113254768989</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8924627878828401</v>
+        <v>0.859477058578705</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05376777336832049</v>
+        <v>0.0111385344310017</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8924627878828401</v>
+        <v>0.859477058578705</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -7851,26 +7071,26 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_0.fasta</t>
+          <t>label_UMGS473_54.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.763831399406128e-07</v>
+        <v>0.01895515815163026</v>
       </c>
       <c r="C72" t="n">
-        <v>8.958589490411905e-05</v>
+        <v>0.003477495041956368</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01724504225593173</v>
+        <v>0.001135377622673074</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9826215780096246</v>
+        <v>0.9614700303642946</v>
       </c>
       <c r="F72" t="n">
-        <v>4.351745639965196e-05</v>
+        <v>0.01496193881944568</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9826215780096246</v>
+        <v>0.9614700303642946</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -7881,26 +7101,26 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_1.fasta</t>
+          <t>label_UMGS473_64.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.893646304793074e-09</v>
+        <v>0.008383572678638476</v>
       </c>
       <c r="C73" t="n">
-        <v>1.937640771119203e-05</v>
+        <v>0.006256150133098924</v>
       </c>
       <c r="D73" t="n">
-        <v>0.008852654548401621</v>
+        <v>4.393606961205778e-06</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9907159949769796</v>
+        <v>0.9781825296664552</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0004119721732612882</v>
+        <v>0.007173353914846152</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9907159949769796</v>
+        <v>0.9781825296664552</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -7911,26 +7131,26 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_11.fasta</t>
+          <t>label_UMGS473_67.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6.611350199548674e-08</v>
+        <v>0.0379703444540951</v>
       </c>
       <c r="C74" t="n">
-        <v>1.147573005384791e-05</v>
+        <v>0.2805466429504166</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01152807168351798</v>
+        <v>0.01563904871855102</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9878203145508225</v>
+        <v>0.5818579099485288</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0006400719221036639</v>
+        <v>0.08398605392840855</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9878203145508225</v>
+        <v>0.5818579099485288</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -7941,26 +7161,26 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_23.fasta</t>
+          <t>label_UMGS473_77.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.766958021158234e-07</v>
+        <v>0.0009735505703363557</v>
       </c>
       <c r="C75" t="n">
-        <v>2.962348447692455e-05</v>
+        <v>0.07651695944806598</v>
       </c>
       <c r="D75" t="n">
-        <v>0.002955971848478698</v>
+        <v>9.85704671030355e-07</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9970021989463861</v>
+        <v>0.9191441732562728</v>
       </c>
       <c r="F75" t="n">
-        <v>1.202902485624665e-05</v>
+        <v>0.003364331020653817</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9970021989463861</v>
+        <v>0.9191441732562728</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -7971,26 +7191,26 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_35.fasta</t>
+          <t>label_UMGS473_8.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.034300335438418e-07</v>
+        <v>0.03944519098939417</v>
       </c>
       <c r="C76" t="n">
-        <v>3.557940663797978e-05</v>
+        <v>0.008655499613225681</v>
       </c>
       <c r="D76" t="n">
-        <v>0.003108091394825728</v>
+        <v>0.009597002688582268</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9965538977205335</v>
+        <v>0.9388330496390294</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0003020280479692107</v>
+        <v>0.003469257069768491</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9965538977205335</v>
+        <v>0.9388330496390294</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -8001,26 +7221,26 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_36.fasta</t>
+          <t>label_UMGS473_80.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.268630086711083e-06</v>
+        <v>0.003506385811830109</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0001540406500327412</v>
+        <v>0.2665865515209731</v>
       </c>
       <c r="D77" t="n">
-        <v>0.007349015885428899</v>
+        <v>0.001783731120900633</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9922275571740772</v>
+        <v>0.4313800547637364</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0002661176603744021</v>
+        <v>0.2967432767825599</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9922275571740772</v>
+        <v>0.4313800547637364</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -8031,658 +7251,28 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS473_40.fasta</t>
+          <t>label_UMGS473_9.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.409223171044354e-07</v>
+        <v>0.004772902643028439</v>
       </c>
       <c r="C78" t="n">
-        <v>6.625647708895826e-05</v>
+        <v>1.120475296334704e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002063859103576128</v>
+        <v>0.0004041832411575174</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9978435254660997</v>
+        <v>0.9925572567179712</v>
       </c>
       <c r="F78" t="n">
-        <v>2.621803091810605e-05</v>
+        <v>0.002254452644879588</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9978435254660997</v>
+        <v>0.9925572567179712</v>
       </c>
       <c r="H78" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_43.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2.311605387015936e-06</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.0002540166128702872</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.006016111592719983</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.9935457146203527</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.0001818455686700921</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.9935457146203527</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_5.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>2.502535433921616e-06</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.02988331960140917</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.01396964377725617</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.9556893499358032</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.0004551841500974011</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.9556893499358032</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_58.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.00103731456822479</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.3645067736926682</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.1330230593919429</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.1786597537730857</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.3227730985740784</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.3645067736926682</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900540145</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_60.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>2.157380798530062e-07</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.008167899273679554</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.00290378989449218</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.9861419383697257</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.002786156724022562</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.9861419383697257</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_65.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1.278724860072649e-09</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.004053173010054608</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.001372065180299571</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.9918919997643376</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.002682760766583316</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.9918919997643376</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_69.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>4.156733380437469e-06</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.07471048311356053</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.01245343113501182</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.8937191062755732</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.01911282274247398</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.8937191062755732</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_74.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>8.312339793163623e-13</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.3495375368704371</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.01437366965215218</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.1476258235631918</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.4884629699133876</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.4884629699133876</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_84.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>2.699623620324763e-14</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.330171154002595</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.0004478913906199703</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.3285644218971097</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.3408165327096483</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.3408165327096483</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_10.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.006613734465536566</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3.631330797656904e-05</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.0004111238407104217</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.990740332852641</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.0021984955331354</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.990740332852641</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_13.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.007264595148792958</v>
-      </c>
-      <c r="C88" t="n">
-        <v>8.588744201100893e-05</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.0008471774132873189</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.9146402030349433</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.07716213696096531</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.9146402030349433</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_28.fasta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.01601094517176526</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.2517683861994187</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.005889794916312858</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.7208930592645042</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.005437814447999068</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.7208930592645042</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_34.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.02123065965688933</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.001515264328180898</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.001404235622900798</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.9700823779751474</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.005767462416881443</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.9700823779751474</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_42.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.02116252415406438</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.002086409043058896</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.001880993102546849</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.9544386412520257</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.02043143244830424</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.9544386412520257</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_50.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.01405721016804276</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.1134270835674816</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.001900113254768989</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.859477058578705</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.0111385344310017</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.859477058578705</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_54.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.01895515815163026</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.003477495041956368</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.001135377622673074</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.9614700303642946</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.01496193881944568</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.9614700303642946</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_64.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.008383572678638476</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.006256150133098924</v>
-      </c>
-      <c r="D94" t="n">
-        <v>4.393606961205778e-06</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.9781825296664552</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.007173353914846152</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.9781825296664552</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_67.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.0379703444540951</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.2805466429504166</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.01563904871855102</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.5818579099485288</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.08398605392840855</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.5818579099485288</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_77.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.0009735505703363557</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.07651695944806598</v>
-      </c>
-      <c r="D96" t="n">
-        <v>9.85704671030355e-07</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.9191441732562728</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.003364331020653817</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.9191441732562728</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_8.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.03944519098939417</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.008655499613225681</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.009597002688582268</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.9388330496390294</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.003469257069768491</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.9388330496390294</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_80.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.003506385811830109</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.2665865515209731</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.001783731120900633</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.4313800547637364</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.2967432767825599</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.4313800547637364</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS473_9.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.004772902643028439</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.120475296334704e-05</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.0004041832411575174</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.9925572567179712</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.002254452644879588</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.9925572567179712</v>
-      </c>
-      <c r="H99" t="inlineStr">
         <is>
           <t>s__CAG-145 sp900542565</t>
         </is>
@@ -8699,7 +7289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9052,26 +7642,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_0.fasta</t>
+          <t>label_UMGS736_1.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04294821945318288</v>
+        <v>0.03423857311333712</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01009397329461549</v>
+        <v>0.0006514435867474822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003693878135567784</v>
+        <v>0.01202785920616187</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004368632266134886</v>
+        <v>0.0210523449874518</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9388952968504991</v>
+        <v>0.9320297791063017</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9388952968504991</v>
+        <v>0.9320297791063017</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -9082,26 +7672,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_27.fasta</t>
+          <t>label_UMGS736_15.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03169555767157707</v>
+        <v>0.01705289904645943</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06872072064596671</v>
+        <v>0.03242437104402823</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005292333541106564</v>
+        <v>0.00264761441227376</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008954320401661929</v>
+        <v>0.003678630086494052</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8853370677396878</v>
+        <v>0.9441964854107445</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8853370677396878</v>
+        <v>0.9441964854107445</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -9112,26 +7702,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_28.fasta</t>
+          <t>label_UMGS736_21.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08149447126426257</v>
+        <v>0.06472278292357177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01640323656694617</v>
+        <v>0.0009963327033679248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02552853361349992</v>
+        <v>0.01203515650178032</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02349339523245575</v>
+        <v>0.002937123883971318</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8530803633228357</v>
+        <v>0.9193086039873086</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8530803633228357</v>
+        <v>0.9193086039873086</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -9142,26 +7732,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_34.fasta</t>
+          <t>label_UMGS736_22.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08966277731205886</v>
+        <v>0.04814234127946215</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03205185361134504</v>
+        <v>0.06968196227364508</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0230515414981159</v>
+        <v>0.001962960299595946</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02694392744004371</v>
+        <v>0.008163877758294401</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8282899001384365</v>
+        <v>0.8720488583890024</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8282899001384365</v>
+        <v>0.8720488583890024</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -9172,26 +7762,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_38.fasta</t>
+          <t>label_UMGS736_26.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09018588142478072</v>
+        <v>0.01776681296163558</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2999988387117898</v>
+        <v>0.2945412573208956</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02462593505218349</v>
+        <v>0.0007103375415666924</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06420752773064362</v>
+        <v>0.01278386097491434</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5209818170806023</v>
+        <v>0.6741977312009878</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5209818170806023</v>
+        <v>0.6741977312009878</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -9202,26 +7792,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_39.fasta</t>
+          <t>label_UMGS736_29.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1103460998710144</v>
+        <v>0.1109362311809118</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1535609927684347</v>
+        <v>0.006707926489386687</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03602707358403125</v>
+        <v>0.02068834298003948</v>
       </c>
       <c r="E17" t="n">
-        <v>0.125703640978493</v>
+        <v>0.03884086653522662</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5743621927980267</v>
+        <v>0.8228266328144354</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5743621927980267</v>
+        <v>0.8228266328144354</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -9232,26 +7822,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_41.fasta</t>
+          <t>label_UMGS736_4.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06030677958767257</v>
+        <v>0.04890266166167043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09633234707093864</v>
+        <v>0.03607715219346391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02344625622341754</v>
+        <v>0.002418548512576275</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4063406592141236</v>
+        <v>0.008342797074555652</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4135739579038475</v>
+        <v>0.9042588405577338</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4135739579038475</v>
+        <v>0.9042588405577338</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -9262,26 +7852,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_1.fasta</t>
+          <t>label_UMGS736_40.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03423857311333712</v>
+        <v>0.0858073108037134</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006514435867474822</v>
+        <v>0.3372212295261705</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01202785920616187</v>
+        <v>0.01155702146181944</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0210523449874518</v>
+        <v>0.0134277198621229</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9320297791063017</v>
+        <v>0.5519867183461737</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9320297791063017</v>
+        <v>0.5519867183461737</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -9292,26 +7882,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_15.fasta</t>
+          <t>label_UMGS736_9.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01705289904645943</v>
+        <v>0.02317979387331831</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03242437104402823</v>
+        <v>0.003667571476616807</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00264761441227376</v>
+        <v>0.003989318552372044</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003678630086494052</v>
+        <v>0.006428996514911875</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9441964854107445</v>
+        <v>0.962734319582781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9441964854107445</v>
+        <v>0.962734319582781</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -9322,26 +7912,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_21.fasta</t>
+          <t>label_UMGS736_12.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06472278292357177</v>
+        <v>0.06004723474567256</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009963327033679248</v>
+        <v>0.04103603442882885</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01203515650178032</v>
+        <v>0.02430922738358516</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002937123883971318</v>
+        <v>0.009685864126810299</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9193086039873086</v>
+        <v>0.8649216393151031</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9193086039873086</v>
+        <v>0.8649216393151031</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -9352,26 +7942,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_22.fasta</t>
+          <t>label_UMGS736_18.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04814234127946215</v>
+        <v>0.02621317588028237</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06968196227364508</v>
+        <v>0.005110890431853553</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001962960299595946</v>
+        <v>0.02927260294009649</v>
       </c>
       <c r="E22" t="n">
-        <v>0.008163877758294401</v>
+        <v>0.004653974540711778</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8720488583890024</v>
+        <v>0.9347493562070557</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8720488583890024</v>
+        <v>0.9347493562070557</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -9382,26 +7972,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_26.fasta</t>
+          <t>label_UMGS736_19.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01776681296163558</v>
+        <v>0.04280667168260978</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2945412573208956</v>
+        <v>0.007758812531692316</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0007103375415666924</v>
+        <v>0.04361716316496202</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01278386097491434</v>
+        <v>0.02897126553472187</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6741977312009878</v>
+        <v>0.8768460870860141</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6741977312009878</v>
+        <v>0.8768460870860141</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -9412,26 +8002,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_29.fasta</t>
+          <t>label_UMGS736_2.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1109362311809118</v>
+        <v>0.02124307770573614</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006707926489386687</v>
+        <v>0.00196938782605226</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02068834298003948</v>
+        <v>0.01792128120771278</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03884086653522662</v>
+        <v>0.004959851733223275</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8228266328144354</v>
+        <v>0.9539064015272755</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8228266328144354</v>
+        <v>0.9539064015272755</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -9442,26 +8032,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_4.fasta</t>
+          <t>label_UMGS736_24.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04890266166167043</v>
+        <v>0.04160420664185802</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03607715219346391</v>
+        <v>0.02346950747234044</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002418548512576275</v>
+        <v>0.02787722883706467</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008342797074555652</v>
+        <v>0.02279812703290036</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9042588405577338</v>
+        <v>0.8842509300158365</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9042588405577338</v>
+        <v>0.8842509300158365</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -9472,26 +8062,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_40.fasta</t>
+          <t>label_UMGS736_25.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0858073108037134</v>
+        <v>0.02771336174693895</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3372212295261705</v>
+        <v>0.008329912404335655</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01155702146181944</v>
+        <v>0.03091661650144965</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0134277198621229</v>
+        <v>0.02037471590415597</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5519867183461737</v>
+        <v>0.9126653934431198</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5519867183461737</v>
+        <v>0.9126653934431198</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -9502,26 +8092,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_9.fasta</t>
+          <t>label_UMGS736_30.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02317979387331831</v>
+        <v>0.04984304438702693</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003667571476616807</v>
+        <v>0.3265233510080896</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003989318552372044</v>
+        <v>0.0334159426302894</v>
       </c>
       <c r="E27" t="n">
-        <v>0.006428996514911875</v>
+        <v>0.01124148490829391</v>
       </c>
       <c r="F27" t="n">
-        <v>0.962734319582781</v>
+        <v>0.5789761770663001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.962734319582781</v>
+        <v>0.5789761770663001</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -9532,116 +8122,116 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_12.fasta</t>
+          <t>label_UMGS736_37.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06004723474567256</v>
+        <v>0.02863025222178742</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04103603442882885</v>
+        <v>0.8285762237351693</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02430922738358516</v>
+        <v>0.02533453448770048</v>
       </c>
       <c r="E28" t="n">
-        <v>0.009685864126810299</v>
+        <v>0.004947956629157284</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8649216393151031</v>
+        <v>0.1125110329261855</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8649216393151031</v>
+        <v>0.8285762237351693</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900545135</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_18.fasta</t>
+          <t>label_UMGS736_44.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02621317588028237</v>
+        <v>0.025303029773156</v>
       </c>
       <c r="C29" t="n">
-        <v>0.005110890431853553</v>
+        <v>0.4981434711677594</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02927260294009649</v>
+        <v>0.09430739683642232</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004653974540711778</v>
+        <v>0.1866685108719825</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9347493562070557</v>
+        <v>0.1955775913506797</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9347493562070557</v>
+        <v>0.4981434711677594</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900545135</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_19.fasta</t>
+          <t>label_UMGS736_45.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04280667168260978</v>
+        <v>0.01358251067464112</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007758812531692316</v>
+        <v>0.1045903366307755</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04361716316496202</v>
+        <v>0.1127758055453508</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02897126553472187</v>
+        <v>0.430066050971583</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8768460870860141</v>
+        <v>0.3389852961776497</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8768460870860141</v>
+        <v>0.430066050971583</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900545135</t>
+          <t>s__CAG-145 sp900542565</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_2.fasta</t>
+          <t>label_UMGS736_6.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02124307770573614</v>
+        <v>0.02160656763119918</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00196938782605226</v>
+        <v>0.03291474478174353</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01792128120771278</v>
+        <v>0.02435858676617117</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004959851733223275</v>
+        <v>0.001266868423858603</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9539064015272755</v>
+        <v>0.9198532323970274</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9539064015272755</v>
+        <v>0.9198532323970274</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -9652,26 +8242,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_24.fasta</t>
+          <t>label_UMGS736_10.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04160420664185802</v>
+        <v>2.044604609484346e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02346950747234044</v>
+        <v>0.0007284768033496995</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02787722883706467</v>
+        <v>0.01226314612280124</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02279812703290036</v>
+        <v>2.754905557940582e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8842509300158365</v>
+        <v>0.9869787834136601</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8842509300158365</v>
+        <v>0.9869787834136601</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -9682,26 +8272,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_25.fasta</t>
+          <t>label_UMGS736_11.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02771336174693895</v>
+        <v>1.107159955146442e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008329912404335655</v>
+        <v>0.0002135174848027058</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03091661650144965</v>
+        <v>0.0124482802972168</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02037471590415597</v>
+        <v>9.382448575553448e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9126653934431198</v>
+        <v>0.9872432705722699</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9126653934431198</v>
+        <v>0.9872432705722699</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -9712,26 +8302,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_30.fasta</t>
+          <t>label_UMGS736_13.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04984304438702693</v>
+        <v>1.173750454519657e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3265233510080896</v>
+        <v>0.01147624202647846</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0334159426302894</v>
+        <v>0.007168516145732409</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01124148490829391</v>
+        <v>0.0001986206915838023</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5789761770663001</v>
+        <v>0.9811566093987008</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5789761770663001</v>
+        <v>0.9811566093987008</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -9742,56 +8332,56 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_37.fasta</t>
+          <t>label_UMGS736_16.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02863025222178742</v>
+        <v>0.0002013553682719089</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8285762237351693</v>
+        <v>4.367412451367668e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02533453448770048</v>
+        <v>0.02064173492952767</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004947956629157284</v>
+        <v>4.39738486342799e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1125110329261855</v>
+        <v>0.9791085684411147</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8285762237351693</v>
+        <v>0.9791085684411147</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900540145</t>
+          <t>s__CAG-145 sp900545135</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_44.fasta</t>
+          <t>label_UMGS736_17.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.025303029773156</v>
+        <v>1.509769627048015e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4981434711677594</v>
+        <v>0.5109504637733836</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09430739683642232</v>
+        <v>0.09519693795027502</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1866685108719825</v>
+        <v>0.0001666194633388765</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1955775913506797</v>
+        <v>0.3936844690433754</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4981434711677594</v>
+        <v>0.5109504637733836</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -9802,86 +8392,86 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_45.fasta</t>
+          <t>label_UMGS736_33.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01358251067464112</v>
+        <v>0.0001143891790559611</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1045903366307755</v>
+        <v>0.003066464791947622</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1127758055453508</v>
+        <v>0.03124786175414273</v>
       </c>
       <c r="E37" t="n">
-        <v>0.430066050971583</v>
+        <v>0.002757611971662798</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3389852961776497</v>
+        <v>0.9628136723031908</v>
       </c>
       <c r="G37" t="n">
-        <v>0.430066050971583</v>
+        <v>0.9628136723031908</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542565</t>
+          <t>s__CAG-145 sp900545135</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_6.fasta</t>
+          <t>label_UMGS736_36.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02160656763119918</v>
+        <v>3.026418924778855e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03291474478174353</v>
+        <v>0.5857064441478023</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02435858676617117</v>
+        <v>0.0493413463284205</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001266868423858603</v>
+        <v>0.0001589235222138114</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9198532323970274</v>
+        <v>0.3647630218123156</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9198532323970274</v>
+        <v>0.5857064441478023</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900545135</t>
+          <t>s__CAG-145 sp900540145</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_10.fasta</t>
+          <t>label_UMGS736_42.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.044604609484346e-06</v>
+        <v>2.842215908166196e-10</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0007284768033496995</v>
+        <v>0.05431865123995813</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01226314612280124</v>
+        <v>0.04486041453701416</v>
       </c>
       <c r="E39" t="n">
-        <v>2.754905557940582e-05</v>
+        <v>0.0657634006994376</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9869787834136601</v>
+        <v>0.8350575332393685</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9869787834136601</v>
+        <v>0.8350575332393685</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -9892,56 +8482,56 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_11.fasta</t>
+          <t>label_UMGS736_46.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.107159955146442e-06</v>
+        <v>6.631662777917646e-12</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002135174848027058</v>
+        <v>0.3851146004999854</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0124482802972168</v>
+        <v>0.009455703537554717</v>
       </c>
       <c r="E40" t="n">
-        <v>9.382448575553448e-05</v>
+        <v>0.497072539378817</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9872432705722699</v>
+        <v>0.1083571565770112</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9872432705722699</v>
+        <v>0.497072539378817</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900545135</t>
+          <t>s__CAG-145 sp900542565</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_13.fasta</t>
+          <t>label_UMGS736_7.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.173750454519657e-08</v>
+        <v>3.046415750628552e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01147624202647846</v>
+        <v>6.229072216885629e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>0.007168516145732409</v>
+        <v>0.01219055669816754</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0001986206915838023</v>
+        <v>9.808354170893856e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9811566093987008</v>
+        <v>0.9877048260463316</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9811566093987008</v>
+        <v>0.9877048260463316</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -9952,26 +8542,26 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_16.fasta</t>
+          <t>label_UMGS736_14.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0002013553682719089</v>
+        <v>0.02771981308067669</v>
       </c>
       <c r="C42" t="n">
-        <v>4.367412451367668e-06</v>
+        <v>0.002945230824961362</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02064173492952767</v>
+        <v>0.01014468172982352</v>
       </c>
       <c r="E42" t="n">
-        <v>4.39738486342799e-05</v>
+        <v>0.002363354502760058</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9791085684411147</v>
+        <v>0.9568269198617783</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9791085684411147</v>
+        <v>0.9568269198617783</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -9982,56 +8572,56 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_17.fasta</t>
+          <t>label_UMGS736_20.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.509769627048015e-06</v>
+        <v>0.03055931667949182</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5109504637733836</v>
+        <v>0.006701646165320495</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09519693795027502</v>
+        <v>0.00421610703322686</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0001666194633388765</v>
+        <v>0.006175908262787949</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3936844690433754</v>
+        <v>0.9523470218591727</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5109504637733836</v>
+        <v>0.9523470218591727</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900540145</t>
+          <t>s__CAG-145 sp900545135</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_33.fasta</t>
+          <t>label_UMGS736_23.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0001143891790559611</v>
+        <v>0.02162036905047814</v>
       </c>
       <c r="C44" t="n">
-        <v>0.003066464791947622</v>
+        <v>0.01508597813658505</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03124786175414273</v>
+        <v>0.004144880342295768</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002757611971662798</v>
+        <v>0.00565216039469574</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9628136723031908</v>
+        <v>0.9534966120759454</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9628136723031908</v>
+        <v>0.9534966120759454</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -10042,56 +8632,56 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_36.fasta</t>
+          <t>label_UMGS736_3.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.026418924778855e-05</v>
+        <v>0.02452753653775031</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5857064441478023</v>
+        <v>0.0005217206261877467</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0493413463284205</v>
+        <v>0.003056705110086828</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0001589235222138114</v>
+        <v>0.01110052510287983</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3647630218123156</v>
+        <v>0.9607935126230952</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5857064441478023</v>
+        <v>0.9607935126230952</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900540145</t>
+          <t>s__CAG-145 sp900545135</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_42.fasta</t>
+          <t>label_UMGS736_31.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.842215908166196e-10</v>
+        <v>0.06423190449204239</v>
       </c>
       <c r="C46" t="n">
-        <v>0.05431865123995813</v>
+        <v>0.09383459822855922</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04486041453701416</v>
+        <v>0.003865583839596363</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0657634006994376</v>
+        <v>0.003783492422520266</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8350575332393685</v>
+        <v>0.8342844210172818</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8350575332393685</v>
+        <v>0.8342844210172818</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -10102,56 +8692,56 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_46.fasta</t>
+          <t>label_UMGS736_32.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6.631662777917646e-12</v>
+        <v>0.07516681204984377</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3851146004999854</v>
+        <v>0.009153716200450456</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009455703537554717</v>
+        <v>0.01840706533983186</v>
       </c>
       <c r="E47" t="n">
-        <v>0.497072539378817</v>
+        <v>0.3152903289791951</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1083571565770112</v>
+        <v>0.5819820774306788</v>
       </c>
       <c r="G47" t="n">
-        <v>0.497072539378817</v>
+        <v>0.5819820774306788</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542565</t>
+          <t>s__CAG-145 sp900545135</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_7.fasta</t>
+          <t>label_UMGS736_35.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.046415750628552e-07</v>
+        <v>0.04394380512518621</v>
       </c>
       <c r="C48" t="n">
-        <v>6.229072216885629e-06</v>
+        <v>0.2478461056002055</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01219055669816754</v>
+        <v>0.01466193526747292</v>
       </c>
       <c r="E48" t="n">
-        <v>9.808354170893856e-05</v>
+        <v>0.33538003008621</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9877048260463316</v>
+        <v>0.3581681239209254</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9877048260463316</v>
+        <v>0.3581681239209254</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -10162,56 +8752,56 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_14.fasta</t>
+          <t>label_UMGS736_43.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02771981308067669</v>
+        <v>0.02364105822606071</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002945230824961362</v>
+        <v>0.1847048200934986</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01014468172982352</v>
+        <v>0.002508913381897094</v>
       </c>
       <c r="E49" t="n">
-        <v>0.002363354502760058</v>
+        <v>0.4572158896492867</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9568269198617783</v>
+        <v>0.331929318649257</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9568269198617783</v>
+        <v>0.4572158896492867</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900545135</t>
+          <t>s__CAG-145 sp900542565</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_20.fasta</t>
+          <t>label_UMGS736_5.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03055931667949182</v>
+        <v>0.1696838746464909</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006701646165320495</v>
+        <v>0.0008216625688842673</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00421610703322686</v>
+        <v>0.01474964669385001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006175908262787949</v>
+        <v>0.02036140653616588</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9523470218591727</v>
+        <v>0.794383409554609</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9523470218591727</v>
+        <v>0.794383409554609</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -10222,238 +8812,28 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS736_23.fasta</t>
+          <t>label_UMGS736_8.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02162036905047814</v>
+        <v>0.05711814241761134</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01508597813658505</v>
+        <v>0.00263146672537005</v>
       </c>
       <c r="D51" t="n">
-        <v>0.004144880342295768</v>
+        <v>0.008420629474644017</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00565216039469574</v>
+        <v>0.0590019898665759</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9534966120759454</v>
+        <v>0.8728277715157987</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9534966120759454</v>
+        <v>0.8728277715157987</v>
       </c>
       <c r="H51" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS736_3.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.02452753653775031</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.0005217206261877467</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.003056705110086828</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.01110052510287983</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.9607935126230952</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.9607935126230952</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS736_31.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.06423190449204239</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.09383459822855922</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.003865583839596363</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.003783492422520266</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.8342844210172818</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.8342844210172818</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS736_32.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.07516681204984377</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.009153716200450456</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.01840706533983186</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.3152903289791951</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.5819820774306788</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.5819820774306788</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS736_35.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.04394380512518621</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.2478461056002055</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.01466193526747292</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.33538003008621</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.3581681239209254</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.3581681239209254</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS736_43.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.02364105822606071</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.1847048200934986</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.002508913381897094</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.4572158896492867</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.331929318649257</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.4572158896492867</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900542565</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS736_5.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.1696838746464909</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.0008216625688842673</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.01474964669385001</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.02036140653616588</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.794383409554609</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.794383409554609</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS736_8.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.05711814241761134</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.00263146672537005</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.008420629474644017</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.0590019898665759</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.8728277715157987</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.8728277715157987</v>
-      </c>
-      <c r="H58" t="inlineStr">
         <is>
           <t>s__CAG-145 sp900545135</t>
         </is>
